--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK193"/>
+  <dimension ref="A1:BK194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.94</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU14" t="n">
         <v>1.61</v>
@@ -4351,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT19" t="n">
         <v>0.6899999999999999</v>
@@ -5978,7 +5978,7 @@
         <v>2.75</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU27" t="n">
         <v>2.53</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT31" t="n">
         <v>1.18</v>
@@ -8617,7 +8617,7 @@
         <v>0.8</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU40" t="n">
         <v>0.93</v>
@@ -9426,7 +9426,7 @@
         <v>1.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT44" t="n">
         <v>2.19</v>
@@ -11459,7 +11459,7 @@
         <v>1.65</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU54" t="n">
         <v>1.22</v>
@@ -13892,7 +13892,7 @@
         <v>2.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT66" t="n">
         <v>2.69</v>
@@ -14098,7 +14098,7 @@
         <v>1.63</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU67" t="n">
         <v>1.55</v>
@@ -17140,7 +17140,7 @@
         <v>1.71</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT82" t="n">
         <v>1.31</v>
@@ -17346,7 +17346,7 @@
         <v>1.69</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU83" t="n">
         <v>1.89</v>
@@ -18970,7 +18970,7 @@
         <v>3</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU91" t="n">
         <v>2.4</v>
@@ -19170,7 +19170,7 @@
         <v>1.17</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT92" t="n">
         <v>0.93</v>
@@ -20388,7 +20388,7 @@
         <v>0.13</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT98" t="n">
         <v>0.13</v>
@@ -22421,7 +22421,7 @@
         <v>1.06</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU108" t="n">
         <v>1.45</v>
@@ -24042,7 +24042,7 @@
         <v>0.67</v>
       </c>
       <c r="AS116" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT116" t="n">
         <v>1</v>
@@ -24451,7 +24451,7 @@
         <v>2.13</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU118" t="n">
         <v>1.35</v>
@@ -25869,7 +25869,7 @@
         <v>0.63</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT125" t="n">
         <v>0.8100000000000001</v>
@@ -26278,7 +26278,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU127" t="n">
         <v>1.45</v>
@@ -26884,7 +26884,7 @@
         <v>0.7</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT130" t="n">
         <v>1</v>
@@ -28914,7 +28914,7 @@
         <v>2.09</v>
       </c>
       <c r="AS140" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT140" t="n">
         <v>2.19</v>
@@ -29929,7 +29929,7 @@
         <v>0.64</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT145" t="n">
         <v>0.6899999999999999</v>
@@ -30338,7 +30338,7 @@
         <v>2.75</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU147" t="n">
         <v>2.56</v>
@@ -31150,7 +31150,7 @@
         <v>1.94</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU151" t="n">
         <v>1.36</v>
@@ -33177,7 +33177,7 @@
         <v>1.36</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT161" t="n">
         <v>1.18</v>
@@ -36022,7 +36022,7 @@
         <v>1.65</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU175" t="n">
         <v>1.34</v>
@@ -37643,7 +37643,7 @@
         <v>0.71</v>
       </c>
       <c r="AS183" t="n">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AT183" t="n">
         <v>0.8100000000000001</v>
@@ -38052,7 +38052,7 @@
         <v>0.8</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AU185" t="n">
         <v>1.14</v>
@@ -39728,6 +39728,209 @@
       </c>
       <c r="BK193" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2465557</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45038.35416666666</v>
+      </c>
+      <c r="F194" t="n">
+        <v>33</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>4</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>4</v>
+      </c>
+      <c r="L194" t="n">
+        <v>6</v>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="n">
+        <v>7</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['17', '22', '28', '45+7', '56', '59']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>8</v>
+      </c>
+      <c r="R194" t="n">
+        <v>5</v>
+      </c>
+      <c r="S194" t="n">
+        <v>13</v>
+      </c>
+      <c r="T194" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V194" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X194" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK194"/>
+  <dimension ref="A1:BK198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2527,7 +2527,7 @@
         <v>2.75</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT14" t="n">
         <v>0.75</v>
@@ -3948,7 +3948,7 @@
         <v>2.13</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU17" t="n">
         <v>0.75</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT21" t="n">
         <v>0.8100000000000001</v>
@@ -4963,7 +4963,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU22" t="n">
         <v>0.34</v>
@@ -5166,7 +5166,7 @@
         <v>0.88</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU23" t="n">
         <v>0.8</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AT25" t="n">
         <v>0.82</v>
@@ -5772,7 +5772,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -6181,7 +6181,7 @@
         <v>1.63</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU28" t="n">
         <v>1.62</v>
@@ -6384,7 +6384,7 @@
         <v>2.13</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU29" t="n">
         <v>1.02</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT30" t="n">
         <v>2.69</v>
@@ -6990,7 +6990,7 @@
         <v>2</v>
       </c>
       <c r="AS32" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AT32" t="n">
         <v>2.19</v>
@@ -7193,7 +7193,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT33" t="n">
         <v>0.8100000000000001</v>
@@ -7399,7 +7399,7 @@
         <v>1.69</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU34" t="n">
         <v>1.06</v>
@@ -8211,7 +8211,7 @@
         <v>1.65</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU38" t="n">
         <v>1.19</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT40" t="n">
         <v>0.75</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT42" t="n">
         <v>2.69</v>
@@ -9632,7 +9632,7 @@
         <v>2.13</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU45" t="n">
         <v>1.36</v>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT47" t="n">
         <v>1.18</v>
@@ -10238,10 +10238,10 @@
         <v>2</v>
       </c>
       <c r="AS48" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU48" t="n">
         <v>2.23</v>
@@ -10441,10 +10441,10 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU49" t="n">
         <v>1.27</v>
@@ -10647,7 +10647,7 @@
         <v>0.88</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU50" t="n">
         <v>1.1</v>
@@ -11050,7 +11050,7 @@
         <v>2.25</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT52" t="n">
         <v>2.69</v>
@@ -11256,7 +11256,7 @@
         <v>1.69</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU53" t="n">
         <v>1.97</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -12268,7 +12268,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -12471,7 +12471,7 @@
         <v>1.2</v>
       </c>
       <c r="AS59" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AT59" t="n">
         <v>1</v>
@@ -13080,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU62" t="n">
         <v>1.18</v>
@@ -14504,7 +14504,7 @@
         <v>2.75</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU69" t="n">
         <v>2.62</v>
@@ -14704,7 +14704,7 @@
         <v>0.6</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT70" t="n">
         <v>0.6899999999999999</v>
@@ -15313,10 +15313,10 @@
         <v>1.5</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU73" t="n">
         <v>1.55</v>
@@ -15516,10 +15516,10 @@
         <v>0.17</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU74" t="n">
         <v>1.04</v>
@@ -16331,7 +16331,7 @@
         <v>1.63</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU78" t="n">
         <v>1.49</v>
@@ -16531,7 +16531,7 @@
         <v>0.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AT79" t="n">
         <v>0.6899999999999999</v>
@@ -16937,7 +16937,7 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT81" t="n">
         <v>2.19</v>
@@ -17143,7 +17143,7 @@
         <v>2.13</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU82" t="n">
         <v>1.82</v>
@@ -17952,10 +17952,10 @@
         <v>0.14</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU86" t="n">
         <v>1.51</v>
@@ -18358,7 +18358,7 @@
         <v>1.29</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT88" t="n">
         <v>1.18</v>
@@ -18561,7 +18561,7 @@
         <v>1.67</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT89" t="n">
         <v>2.19</v>
@@ -18764,10 +18764,10 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU90" t="n">
         <v>1.03</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AT91" t="n">
         <v>0.75</v>
@@ -19173,7 +19173,7 @@
         <v>2.13</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU92" t="n">
         <v>1.81</v>
@@ -20391,7 +20391,7 @@
         <v>2.13</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU98" t="n">
         <v>1.87</v>
@@ -20794,10 +20794,10 @@
         <v>1.14</v>
       </c>
       <c r="AS100" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU100" t="n">
         <v>2.43</v>
@@ -21203,7 +21203,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU102" t="n">
         <v>1.41</v>
@@ -21403,7 +21403,7 @@
         <v>1.44</v>
       </c>
       <c r="AS103" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AT103" t="n">
         <v>1.18</v>
@@ -21606,7 +21606,7 @@
         <v>0.88</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT104" t="n">
         <v>1</v>
@@ -21809,7 +21809,7 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT105" t="n">
         <v>0.82</v>
@@ -22015,7 +22015,7 @@
         <v>1.69</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU106" t="n">
         <v>1.92</v>
@@ -22215,7 +22215,7 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT107" t="n">
         <v>0.82</v>
@@ -22418,7 +22418,7 @@
         <v>0.88</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT108" t="n">
         <v>0.75</v>
@@ -23030,7 +23030,7 @@
         <v>2.75</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU111" t="n">
         <v>2.69</v>
@@ -23639,7 +23639,7 @@
         <v>1.65</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU114" t="n">
         <v>1.32</v>
@@ -24245,7 +24245,7 @@
         <v>0.38</v>
       </c>
       <c r="AS117" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT117" t="n">
         <v>0.6899999999999999</v>
@@ -24654,7 +24654,7 @@
         <v>0.88</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU119" t="n">
         <v>1.13</v>
@@ -24854,7 +24854,7 @@
         <v>1.2</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT120" t="n">
         <v>0.82</v>
@@ -25260,10 +25260,10 @@
         <v>0.2</v>
       </c>
       <c r="AS122" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU122" t="n">
         <v>2.62</v>
@@ -25666,7 +25666,7 @@
         <v>1.89</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT124" t="n">
         <v>2.19</v>
@@ -26072,10 +26072,10 @@
         <v>1.1</v>
       </c>
       <c r="AS126" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU126" t="n">
         <v>1.11</v>
@@ -26681,7 +26681,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS129" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AT129" t="n">
         <v>0.8100000000000001</v>
@@ -27699,7 +27699,7 @@
         <v>0.88</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU134" t="n">
         <v>1.15</v>
@@ -27899,10 +27899,10 @@
         <v>1.27</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU135" t="n">
         <v>1.39</v>
@@ -28305,7 +28305,7 @@
         <v>2.55</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT137" t="n">
         <v>2.69</v>
@@ -29523,10 +29523,10 @@
         <v>1.27</v>
       </c>
       <c r="AS143" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU143" t="n">
         <v>2.64</v>
@@ -29729,7 +29729,7 @@
         <v>2.13</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU144" t="n">
         <v>1.49</v>
@@ -30135,7 +30135,7 @@
         <v>1.65</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU146" t="n">
         <v>1.32</v>
@@ -30538,7 +30538,7 @@
         <v>0.83</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT148" t="n">
         <v>1</v>
@@ -30741,7 +30741,7 @@
         <v>2.58</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT149" t="n">
         <v>2.69</v>
@@ -31147,7 +31147,7 @@
         <v>0.75</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT151" t="n">
         <v>0.75</v>
@@ -31556,7 +31556,7 @@
         <v>1.69</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU153" t="n">
         <v>1.9</v>
@@ -31756,7 +31756,7 @@
         <v>0.58</v>
       </c>
       <c r="AS154" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AT154" t="n">
         <v>1</v>
@@ -31959,7 +31959,7 @@
         <v>1.23</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT155" t="n">
         <v>1.18</v>
@@ -32368,7 +32368,7 @@
         <v>2.13</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU157" t="n">
         <v>1.51</v>
@@ -32571,7 +32571,7 @@
         <v>1.63</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU158" t="n">
         <v>1.52</v>
@@ -32974,7 +32974,7 @@
         <v>0.67</v>
       </c>
       <c r="AS160" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT160" t="n">
         <v>0.8100000000000001</v>
@@ -33383,7 +33383,7 @@
         <v>0.88</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU162" t="n">
         <v>1.29</v>
@@ -33586,7 +33586,7 @@
         <v>2.75</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU163" t="n">
         <v>2.56</v>
@@ -33989,7 +33989,7 @@
         <v>0.54</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT165" t="n">
         <v>1</v>
@@ -34192,7 +34192,7 @@
         <v>2.62</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT166" t="n">
         <v>2.69</v>
@@ -34598,7 +34598,7 @@
         <v>1.08</v>
       </c>
       <c r="AS168" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AT168" t="n">
         <v>0.82</v>
@@ -35410,7 +35410,7 @@
         <v>1.14</v>
       </c>
       <c r="AS172" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AT172" t="n">
         <v>1</v>
@@ -35613,7 +35613,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT173" t="n">
         <v>0.8100000000000001</v>
@@ -36225,7 +36225,7 @@
         <v>1.69</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU176" t="n">
         <v>1.84</v>
@@ -36831,7 +36831,7 @@
         <v>0.71</v>
       </c>
       <c r="AS179" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT179" t="n">
         <v>1</v>
@@ -37034,10 +37034,10 @@
         <v>1.08</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU180" t="n">
         <v>1.3</v>
@@ -37440,7 +37440,7 @@
         <v>2.33</v>
       </c>
       <c r="AS182" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AT182" t="n">
         <v>2.19</v>
@@ -37849,7 +37849,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU184" t="n">
         <v>1.28</v>
@@ -38049,7 +38049,7 @@
         <v>0.64</v>
       </c>
       <c r="AS185" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT185" t="n">
         <v>0.75</v>
@@ -38255,7 +38255,7 @@
         <v>2.13</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU186" t="n">
         <v>1.51</v>
@@ -38455,7 +38455,7 @@
         <v>1.07</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT187" t="n">
         <v>1</v>
@@ -39931,6 +39931,818 @@
       </c>
       <c r="BK194" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2465556</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45038.45833333334</v>
+      </c>
+      <c r="F195" t="n">
+        <v>33</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Dundee United</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="n">
+        <v>2</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" t="n">
+        <v>2</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['17', '85']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>6</v>
+      </c>
+      <c r="R195" t="n">
+        <v>3</v>
+      </c>
+      <c r="S195" t="n">
+        <v>9</v>
+      </c>
+      <c r="T195" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V195" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X195" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2465558</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45038.45833333334</v>
+      </c>
+      <c r="F196" t="n">
+        <v>33</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
+      <c r="K196" t="n">
+        <v>2</v>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="n">
+        <v>2</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>8</v>
+      </c>
+      <c r="R196" t="n">
+        <v>1</v>
+      </c>
+      <c r="S196" t="n">
+        <v>9</v>
+      </c>
+      <c r="T196" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V196" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X196" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2465555</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45038.45833333334</v>
+      </c>
+      <c r="F197" t="n">
+        <v>33</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="n">
+        <v>2</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>13</v>
+      </c>
+      <c r="R197" t="n">
+        <v>3</v>
+      </c>
+      <c r="S197" t="n">
+        <v>16</v>
+      </c>
+      <c r="T197" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U197" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V197" t="n">
+        <v>13</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X197" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>46</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2465559</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45038.45833333334</v>
+      </c>
+      <c r="F198" t="n">
+        <v>33</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>2</v>
+      </c>
+      <c r="K198" t="n">
+        <v>2</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>2</v>
+      </c>
+      <c r="N198" t="n">
+        <v>2</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>['18', '35']</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>5</v>
+      </c>
+      <c r="R198" t="n">
+        <v>1</v>
+      </c>
+      <c r="S198" t="n">
+        <v>6</v>
+      </c>
+      <c r="T198" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U198" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V198" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X198" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK198"/>
+  <dimension ref="A1:BK199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT6" t="n">
         <v>1.29</v>
@@ -2527,7 +2527,7 @@
         <v>2.75</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT17" t="n">
         <v>0.75</v>
@@ -4963,7 +4963,7 @@
         <v>0.88</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU22" t="n">
         <v>0.8</v>
@@ -6381,7 +6381,7 @@
         <v>1.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT29" t="n">
         <v>1</v>
@@ -7805,7 +7805,7 @@
         <v>1.69</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU36" t="n">
         <v>1.06</v>
@@ -8617,7 +8617,7 @@
         <v>1.65</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU40" t="n">
         <v>1.19</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT42" t="n">
         <v>2.69</v>
@@ -10241,7 +10241,7 @@
         <v>2.18</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU48" t="n">
         <v>1.36</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT49" t="n">
         <v>0.88</v>
@@ -13080,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU62" t="n">
         <v>1.18</v>
@@ -14501,7 +14501,7 @@
         <v>0.6</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT69" t="n">
         <v>0.6899999999999999</v>
@@ -15519,7 +15519,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU74" t="n">
         <v>1.04</v>
@@ -17749,7 +17749,7 @@
         <v>1.29</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT85" t="n">
         <v>1.18</v>
@@ -18361,7 +18361,7 @@
         <v>1.18</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU88" t="n">
         <v>1.51</v>
@@ -18561,7 +18561,7 @@
         <v>1.67</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT89" t="n">
         <v>2.06</v>
@@ -20391,7 +20391,7 @@
         <v>2.13</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU98" t="n">
         <v>1.87</v>
@@ -21203,7 +21203,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU102" t="n">
         <v>1.41</v>
@@ -21606,7 +21606,7 @@
         <v>0.88</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT104" t="n">
         <v>1</v>
@@ -24651,7 +24651,7 @@
         <v>1.2</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT119" t="n">
         <v>0.82</v>
@@ -24857,7 +24857,7 @@
         <v>2.88</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU120" t="n">
         <v>2.62</v>
@@ -27699,7 +27699,7 @@
         <v>0.88</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU134" t="n">
         <v>1.15</v>
@@ -27899,7 +27899,7 @@
         <v>1.27</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT135" t="n">
         <v>1.29</v>
@@ -30135,7 +30135,7 @@
         <v>1.65</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU146" t="n">
         <v>1.32</v>
@@ -30538,7 +30538,7 @@
         <v>0.83</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT148" t="n">
         <v>1</v>
@@ -31353,7 +31353,7 @@
         <v>1.69</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU152" t="n">
         <v>1.9</v>
@@ -31553,7 +31553,7 @@
         <v>0.75</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT153" t="n">
         <v>0.75</v>
@@ -33586,7 +33586,7 @@
         <v>2.75</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU163" t="n">
         <v>2.56</v>
@@ -34192,7 +34192,7 @@
         <v>2.62</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT166" t="n">
         <v>2.69</v>
@@ -37034,7 +37034,7 @@
         <v>1.08</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT180" t="n">
         <v>0.88</v>
@@ -38255,7 +38255,7 @@
         <v>2.18</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.13</v>
+        <v>0.29</v>
       </c>
       <c r="AU186" t="n">
         <v>1.51</v>
@@ -40547,7 +40547,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>2465554</v>
+        <v>2465559</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -40560,188 +40560,391 @@
         </is>
       </c>
       <c r="E198" s="2" t="n">
-        <v>45039.52083333334</v>
+        <v>45038.45833333334</v>
       </c>
       <c r="F198" t="n">
         <v>33</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>2</v>
+      </c>
+      <c r="K198" t="n">
+        <v>2</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>2</v>
+      </c>
+      <c r="N198" t="n">
+        <v>2</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>['18', '35']</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>5</v>
+      </c>
+      <c r="R198" t="n">
+        <v>1</v>
+      </c>
+      <c r="S198" t="n">
+        <v>6</v>
+      </c>
+      <c r="T198" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U198" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V198" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X198" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2465554</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45039.52083333334</v>
+      </c>
+      <c r="F199" t="n">
+        <v>33</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
           <t>Aberdeen</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
+      <c r="H199" t="inlineStr">
         <is>
           <t>Rangers</t>
         </is>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>0</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0</v>
-      </c>
-      <c r="L198" t="n">
-        <v>2</v>
-      </c>
-      <c r="M198" t="n">
-        <v>0</v>
-      </c>
-      <c r="N198" t="n">
-        <v>2</v>
-      </c>
-      <c r="O198" t="inlineStr">
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>2</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>2</v>
+      </c>
+      <c r="O199" t="inlineStr">
         <is>
           <t>['48', '56']</t>
         </is>
       </c>
-      <c r="P198" t="inlineStr">
+      <c r="P199" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="Q198" t="n">
-        <v>3</v>
-      </c>
-      <c r="R198" t="n">
+      <c r="Q199" t="n">
+        <v>3</v>
+      </c>
+      <c r="R199" t="n">
         <v>7</v>
       </c>
-      <c r="S198" t="n">
+      <c r="S199" t="n">
         <v>10</v>
       </c>
-      <c r="T198" t="n">
+      <c r="T199" t="n">
         <v>5</v>
       </c>
-      <c r="U198" t="n">
+      <c r="U199" t="n">
         <v>2.5</v>
       </c>
-      <c r="V198" t="n">
+      <c r="V199" t="n">
         <v>2.05</v>
       </c>
-      <c r="W198" t="n">
+      <c r="W199" t="n">
         <v>1.25</v>
       </c>
-      <c r="X198" t="n">
+      <c r="X199" t="n">
         <v>3.75</v>
       </c>
-      <c r="Y198" t="n">
+      <c r="Y199" t="n">
         <v>2.2</v>
       </c>
-      <c r="Z198" t="n">
+      <c r="Z199" t="n">
         <v>1.62</v>
       </c>
-      <c r="AA198" t="n">
+      <c r="AA199" t="n">
         <v>5</v>
       </c>
-      <c r="AB198" t="n">
+      <c r="AB199" t="n">
         <v>1.17</v>
       </c>
-      <c r="AC198" t="n">
+      <c r="AC199" t="n">
         <v>4.75</v>
       </c>
-      <c r="AD198" t="n">
+      <c r="AD199" t="n">
         <v>4.2</v>
       </c>
-      <c r="AE198" t="n">
+      <c r="AE199" t="n">
         <v>1.55</v>
       </c>
-      <c r="AF198" t="n">
+      <c r="AF199" t="n">
         <v>1.02</v>
       </c>
-      <c r="AG198" t="n">
+      <c r="AG199" t="n">
         <v>20.5</v>
       </c>
-      <c r="AH198" t="n">
+      <c r="AH199" t="n">
         <v>1.13</v>
       </c>
-      <c r="AI198" t="n">
+      <c r="AI199" t="n">
         <v>4.9</v>
       </c>
-      <c r="AJ198" t="n">
+      <c r="AJ199" t="n">
         <v>1.57</v>
       </c>
-      <c r="AK198" t="n">
+      <c r="AK199" t="n">
         <v>2.25</v>
       </c>
-      <c r="AL198" t="n">
+      <c r="AL199" t="n">
         <v>1.57</v>
       </c>
-      <c r="AM198" t="n">
+      <c r="AM199" t="n">
         <v>2.25</v>
       </c>
-      <c r="AN198" t="n">
+      <c r="AN199" t="n">
         <v>2.3</v>
       </c>
-      <c r="AO198" t="n">
+      <c r="AO199" t="n">
         <v>1.22</v>
       </c>
-      <c r="AP198" t="n">
+      <c r="AP199" t="n">
         <v>1.1</v>
       </c>
-      <c r="AQ198" t="n">
+      <c r="AQ199" t="n">
         <v>2.13</v>
       </c>
-      <c r="AR198" t="n">
+      <c r="AR199" t="n">
         <v>2.19</v>
       </c>
-      <c r="AS198" t="n">
+      <c r="AS199" t="n">
         <v>2.18</v>
       </c>
-      <c r="AT198" t="n">
+      <c r="AT199" t="n">
         <v>2.06</v>
       </c>
-      <c r="AU198" t="n">
+      <c r="AU199" t="n">
         <v>1.5</v>
       </c>
-      <c r="AV198" t="n">
+      <c r="AV199" t="n">
         <v>1.97</v>
       </c>
-      <c r="AW198" t="n">
+      <c r="AW199" t="n">
         <v>3.47</v>
       </c>
-      <c r="AX198" t="n">
+      <c r="AX199" t="n">
         <v>4.5</v>
       </c>
-      <c r="AY198" t="n">
+      <c r="AY199" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AZ198" t="n">
+      <c r="AZ199" t="n">
         <v>1.32</v>
       </c>
-      <c r="BA198" t="n">
+      <c r="BA199" t="n">
         <v>1.1</v>
       </c>
-      <c r="BB198" t="n">
+      <c r="BB199" t="n">
         <v>1.24</v>
       </c>
-      <c r="BC198" t="n">
+      <c r="BC199" t="n">
         <v>1.45</v>
       </c>
-      <c r="BD198" t="n">
+      <c r="BD199" t="n">
         <v>1.77</v>
       </c>
-      <c r="BE198" t="n">
+      <c r="BE199" t="n">
         <v>2.21</v>
       </c>
-      <c r="BF198" t="n">
+      <c r="BF199" t="n">
         <v>5</v>
       </c>
-      <c r="BG198" t="n">
+      <c r="BG199" t="n">
         <v>4</v>
       </c>
-      <c r="BH198" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI198" t="n">
+      <c r="BH199" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI199" t="n">
         <v>9</v>
       </c>
-      <c r="BJ198" t="n">
+      <c r="BJ199" t="n">
         <v>8</v>
       </c>
-      <c r="BK198" t="n">
+      <c r="BK199" t="n">
         <v>13</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK199"/>
+  <dimension ref="A1:BK203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.63</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
         <v>2.69</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT9" t="n">
         <v>1.18</v>
@@ -2527,7 +2527,7 @@
         <v>2.75</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2.18</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT12" t="n">
         <v>0.82</v>
@@ -3136,7 +3136,7 @@
         <v>1.18</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>2.13</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU19" t="n">
         <v>1.58</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT20" t="n">
         <v>2.06</v>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU21" t="n">
         <v>0.34</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AU22" t="n">
         <v>0.8</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT23" t="n">
         <v>1</v>
@@ -5369,7 +5369,7 @@
         <v>1.18</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU24" t="n">
         <v>1.5</v>
@@ -5775,7 +5775,7 @@
         <v>2.18</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU26" t="n">
         <v>1.02</v>
@@ -7193,10 +7193,10 @@
         <v>1.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU33" t="n">
         <v>0.82</v>
@@ -7396,10 +7396,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU34" t="n">
         <v>0.85</v>
@@ -7599,7 +7599,7 @@
         <v>1.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT35" t="n">
         <v>1</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AU36" t="n">
         <v>1.06</v>
@@ -8211,7 +8211,7 @@
         <v>2.75</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU38" t="n">
         <v>2.8</v>
@@ -8411,7 +8411,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT39" t="n">
         <v>1</v>
@@ -8617,7 +8617,7 @@
         <v>1.65</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AU40" t="n">
         <v>1.19</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT41" t="n">
         <v>0.75</v>
@@ -9223,7 +9223,7 @@
         <v>0.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT43" t="n">
         <v>0.82</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT45" t="n">
         <v>1</v>
@@ -10241,7 +10241,7 @@
         <v>2.18</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AU48" t="n">
         <v>1.36</v>
@@ -10444,7 +10444,7 @@
         <v>1.82</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU49" t="n">
         <v>1.27</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT50" t="n">
         <v>1.29</v>
@@ -11050,7 +11050,7 @@
         <v>2.25</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT52" t="n">
         <v>2.69</v>
@@ -11253,7 +11253,7 @@
         <v>1.8</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT53" t="n">
         <v>1.29</v>
@@ -11662,7 +11662,7 @@
         <v>2.75</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU55" t="n">
         <v>2.69</v>
@@ -12877,10 +12877,10 @@
         <v>0.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU61" t="n">
         <v>1.1</v>
@@ -13083,7 +13083,7 @@
         <v>1.82</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AU62" t="n">
         <v>1.18</v>
@@ -13283,7 +13283,7 @@
         <v>1.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT63" t="n">
         <v>2.06</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT65" t="n">
         <v>1.18</v>
@@ -14095,7 +14095,7 @@
         <v>0.8</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT67" t="n">
         <v>1</v>
@@ -14504,7 +14504,7 @@
         <v>1.82</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU69" t="n">
         <v>1.23</v>
@@ -14707,7 +14707,7 @@
         <v>2.75</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU70" t="n">
         <v>2.62</v>
@@ -15110,10 +15110,10 @@
         <v>0.75</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU72" t="n">
         <v>1.9</v>
@@ -15516,10 +15516,10 @@
         <v>0.17</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AU74" t="n">
         <v>1.04</v>
@@ -15922,7 +15922,7 @@
         <v>0.83</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT76" t="n">
         <v>0.82</v>
@@ -16331,7 +16331,7 @@
         <v>1.63</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU78" t="n">
         <v>1.49</v>
@@ -16531,10 +16531,10 @@
         <v>0.6</v>
       </c>
       <c r="AS79" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU79" t="n">
         <v>1.23</v>
@@ -16737,7 +16737,7 @@
         <v>2.88</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU80" t="n">
         <v>2.25</v>
@@ -16937,7 +16937,7 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT81" t="n">
         <v>2.06</v>
@@ -17546,7 +17546,7 @@
         <v>0.67</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT84" t="n">
         <v>0.75</v>
@@ -18155,7 +18155,7 @@
         <v>2.57</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT87" t="n">
         <v>2.69</v>
@@ -18361,7 +18361,7 @@
         <v>1.18</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AU88" t="n">
         <v>1.51</v>
@@ -18767,7 +18767,7 @@
         <v>2.13</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU90" t="n">
         <v>1.81</v>
@@ -19170,7 +19170,7 @@
         <v>1.5</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT92" t="n">
         <v>1.29</v>
@@ -19579,7 +19579,7 @@
         <v>2.18</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU94" t="n">
         <v>1.58</v>
@@ -20185,7 +20185,7 @@
         <v>1.25</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT97" t="n">
         <v>1.18</v>
@@ -20391,7 +20391,7 @@
         <v>2.13</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AU98" t="n">
         <v>1.87</v>
@@ -20797,7 +20797,7 @@
         <v>2.88</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU100" t="n">
         <v>2.43</v>
@@ -20997,7 +20997,7 @@
         <v>1.75</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT101" t="n">
         <v>2.06</v>
@@ -21200,10 +21200,10 @@
         <v>0.11</v>
       </c>
       <c r="AS102" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AU102" t="n">
         <v>1.41</v>
@@ -22012,10 +22012,10 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU106" t="n">
         <v>1.92</v>
@@ -22218,7 +22218,7 @@
         <v>1.65</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU107" t="n">
         <v>1.35</v>
@@ -22824,7 +22824,7 @@
         <v>1</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT110" t="n">
         <v>0.82</v>
@@ -23230,7 +23230,7 @@
         <v>2.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT112" t="n">
         <v>2.69</v>
@@ -24045,7 +24045,7 @@
         <v>1.63</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU116" t="n">
         <v>1.44</v>
@@ -24448,10 +24448,10 @@
         <v>0.38</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU118" t="n">
         <v>1.12</v>
@@ -24857,7 +24857,7 @@
         <v>2.88</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AU120" t="n">
         <v>2.62</v>
@@ -25260,10 +25260,10 @@
         <v>0.89</v>
       </c>
       <c r="AS122" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU122" t="n">
         <v>1.13</v>
@@ -25463,7 +25463,7 @@
         <v>0.6</v>
       </c>
       <c r="AS123" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT123" t="n">
         <v>1</v>
@@ -25872,7 +25872,7 @@
         <v>2.13</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU125" t="n">
         <v>1.8</v>
@@ -26072,10 +26072,10 @@
         <v>1.1</v>
       </c>
       <c r="AS126" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU126" t="n">
         <v>1.11</v>
@@ -26275,10 +26275,10 @@
         <v>0.67</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU127" t="n">
         <v>1.95</v>
@@ -26478,7 +26478,7 @@
         <v>0.8</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT128" t="n">
         <v>0.75</v>
@@ -26887,7 +26887,7 @@
         <v>2.88</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU130" t="n">
         <v>2.67</v>
@@ -27290,7 +27290,7 @@
         <v>0.64</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT132" t="n">
         <v>1</v>
@@ -27696,10 +27696,10 @@
         <v>0.18</v>
       </c>
       <c r="AS134" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AU134" t="n">
         <v>1.15</v>
@@ -28508,7 +28508,7 @@
         <v>0.82</v>
       </c>
       <c r="AS138" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT138" t="n">
         <v>1</v>
@@ -28711,7 +28711,7 @@
         <v>1.08</v>
       </c>
       <c r="AS139" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT139" t="n">
         <v>1.18</v>
@@ -28917,7 +28917,7 @@
         <v>1.63</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU140" t="n">
         <v>1.43</v>
@@ -29323,7 +29323,7 @@
         <v>2.88</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU142" t="n">
         <v>2.64</v>
@@ -29526,7 +29526,7 @@
         <v>2.18</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU143" t="n">
         <v>1.53</v>
@@ -29932,7 +29932,7 @@
         <v>2.13</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU145" t="n">
         <v>1.68</v>
@@ -30135,7 +30135,7 @@
         <v>1.65</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AU146" t="n">
         <v>1.32</v>
@@ -30741,7 +30741,7 @@
         <v>2.58</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT149" t="n">
         <v>2.69</v>
@@ -30944,10 +30944,10 @@
         <v>0.73</v>
       </c>
       <c r="AS150" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU150" t="n">
         <v>1.37</v>
@@ -31350,10 +31350,10 @@
         <v>0.15</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AU152" t="n">
         <v>1.9</v>
@@ -32162,7 +32162,7 @@
         <v>1.17</v>
       </c>
       <c r="AS156" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT156" t="n">
         <v>0.82</v>
@@ -32365,10 +32365,10 @@
         <v>0.58</v>
       </c>
       <c r="AS157" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU157" t="n">
         <v>1.18</v>
@@ -32771,10 +32771,10 @@
         <v>0.67</v>
       </c>
       <c r="AS159" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU159" t="n">
         <v>1.12</v>
@@ -32977,7 +32977,7 @@
         <v>2.18</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU160" t="n">
         <v>1.51</v>
@@ -33586,7 +33586,7 @@
         <v>2.75</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AU163" t="n">
         <v>2.56</v>
@@ -33786,7 +33786,7 @@
         <v>1.07</v>
       </c>
       <c r="AS164" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT164" t="n">
         <v>1.29</v>
@@ -34395,7 +34395,7 @@
         <v>2.23</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT167" t="n">
         <v>2.06</v>
@@ -34601,7 +34601,7 @@
         <v>1.65</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU168" t="n">
         <v>1.28</v>
@@ -35004,7 +35004,7 @@
         <v>2.29</v>
       </c>
       <c r="AS170" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT170" t="n">
         <v>2.06</v>
@@ -36022,7 +36022,7 @@
         <v>1.18</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU175" t="n">
         <v>1.4</v>
@@ -36222,7 +36222,7 @@
         <v>1.2</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT176" t="n">
         <v>1.29</v>
@@ -36631,7 +36631,7 @@
         <v>2.75</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU178" t="n">
         <v>2.53</v>
@@ -36831,7 +36831,7 @@
         <v>0.71</v>
       </c>
       <c r="AS179" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT179" t="n">
         <v>1</v>
@@ -37037,7 +37037,7 @@
         <v>1.82</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU180" t="n">
         <v>1.3</v>
@@ -37237,7 +37237,7 @@
         <v>2.64</v>
       </c>
       <c r="AS181" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT181" t="n">
         <v>2.69</v>
@@ -37643,10 +37643,10 @@
         <v>1</v>
       </c>
       <c r="AS183" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU183" t="n">
         <v>1.28</v>
@@ -37849,7 +37849,7 @@
         <v>2.13</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU184" t="n">
         <v>1.72</v>
@@ -38049,7 +38049,7 @@
         <v>0.64</v>
       </c>
       <c r="AS185" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT185" t="n">
         <v>0.75</v>
@@ -38255,7 +38255,7 @@
         <v>2.18</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AU186" t="n">
         <v>1.51</v>
@@ -38658,7 +38658,7 @@
         <v>0.87</v>
       </c>
       <c r="AS188" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT188" t="n">
         <v>1</v>
@@ -38861,7 +38861,7 @@
         <v>0.88</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT189" t="n">
         <v>0.82</v>
@@ -39267,10 +39267,10 @@
         <v>0.53</v>
       </c>
       <c r="AS191" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AU191" t="n">
         <v>1.28</v>
@@ -39473,7 +39473,7 @@
         <v>2.75</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AU192" t="n">
         <v>2.53</v>
@@ -40285,7 +40285,7 @@
         <v>1.18</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU196" t="n">
         <v>1.38</v>
@@ -40485,7 +40485,7 @@
         <v>1</v>
       </c>
       <c r="AS197" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT197" t="n">
         <v>1</v>
@@ -40691,7 +40691,7 @@
         <v>1.82</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AU198" t="n">
         <v>1.32</v>
@@ -40946,6 +40946,818 @@
       </c>
       <c r="BK199" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5976022</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45052.45833333334</v>
+      </c>
+      <c r="F200" t="n">
+        <v>34</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="n">
+        <v>2</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" t="n">
+        <v>2</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['40', '60']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T200" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V200" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X200" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5976023</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45052.45833333334</v>
+      </c>
+      <c r="F201" t="n">
+        <v>34</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Dundee United</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T201" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V201" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5976021</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45052.45833333334</v>
+      </c>
+      <c r="F202" t="n">
+        <v>34</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="n">
+        <v>2</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>2</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['4', '90+1']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T202" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V202" t="n">
+        <v>4</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5976020</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45052.45833333334</v>
+      </c>
+      <c r="F203" t="n">
+        <v>34</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>2</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>2</v>
+      </c>
+      <c r="L203" t="n">
+        <v>2</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="n">
+        <v>3</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['4', '23']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R203" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S203" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T203" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V203" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK203"/>
+  <dimension ref="A1:BK205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT3" t="n">
         <v>0.75</v>
@@ -1918,7 +1918,7 @@
         <v>2.88</v>
       </c>
       <c r="AT7" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT10" t="n">
         <v>0.28</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT16" t="n">
         <v>1.18</v>
@@ -4151,7 +4151,7 @@
         <v>1.63</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU18" t="n">
         <v>2.08</v>
@@ -4351,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT19" t="n">
         <v>0.65</v>
@@ -5166,7 +5166,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU23" t="n">
         <v>0.58</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT28" t="n">
         <v>0.75</v>
@@ -6587,7 +6587,7 @@
         <v>1.18</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU30" t="n">
         <v>1.54</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT31" t="n">
         <v>1.18</v>
@@ -7602,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU35" t="n">
         <v>1.09</v>
@@ -8208,7 +8208,7 @@
         <v>0.67</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT38" t="n">
         <v>0.65</v>
@@ -8414,7 +8414,7 @@
         <v>1.76</v>
       </c>
       <c r="AT39" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU39" t="n">
         <v>1.67</v>
@@ -9023,7 +9023,7 @@
         <v>1.82</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU42" t="n">
         <v>1.42</v>
@@ -9426,7 +9426,7 @@
         <v>1.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT44" t="n">
         <v>2.06</v>
@@ -11053,7 +11053,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU52" t="n">
         <v>1.05</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT55" t="n">
         <v>0.76</v>
@@ -11865,7 +11865,7 @@
         <v>1.18</v>
       </c>
       <c r="AT56" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU56" t="n">
         <v>1.49</v>
@@ -13892,10 +13892,10 @@
         <v>2.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU66" t="n">
         <v>1.76</v>
@@ -14098,7 +14098,7 @@
         <v>1.06</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU67" t="n">
         <v>1.43</v>
@@ -14704,7 +14704,7 @@
         <v>0.75</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT70" t="n">
         <v>0.82</v>
@@ -15313,10 +15313,10 @@
         <v>1.17</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT73" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU73" t="n">
         <v>2.63</v>
@@ -15722,7 +15722,7 @@
         <v>1.65</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU75" t="n">
         <v>1.48</v>
@@ -17140,7 +17140,7 @@
         <v>1.71</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT82" t="n">
         <v>1.29</v>
@@ -17346,7 +17346,7 @@
         <v>1.65</v>
       </c>
       <c r="AT83" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU83" t="n">
         <v>1.37</v>
@@ -17952,7 +17952,7 @@
         <v>1.14</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT86" t="n">
         <v>0.82</v>
@@ -18158,7 +18158,7 @@
         <v>1.06</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU87" t="n">
         <v>1.48</v>
@@ -18764,7 +18764,7 @@
         <v>1.17</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT90" t="n">
         <v>0.82</v>
@@ -19779,7 +19779,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT95" t="n">
         <v>1</v>
@@ -19985,7 +19985,7 @@
         <v>2.18</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU96" t="n">
         <v>1.51</v>
@@ -20388,7 +20388,7 @@
         <v>0.13</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT98" t="n">
         <v>0.28</v>
@@ -21609,7 +21609,7 @@
         <v>1.82</v>
       </c>
       <c r="AT104" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU104" t="n">
         <v>1.31</v>
@@ -22421,7 +22421,7 @@
         <v>1.63</v>
       </c>
       <c r="AT108" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU108" t="n">
         <v>1.42</v>
@@ -22621,7 +22621,7 @@
         <v>1.44</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT109" t="n">
         <v>1.29</v>
@@ -23233,7 +23233,7 @@
         <v>1.76</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU112" t="n">
         <v>2.07</v>
@@ -23433,10 +23433,10 @@
         <v>2.7</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT113" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU113" t="n">
         <v>2.64</v>
@@ -23839,7 +23839,7 @@
         <v>0.67</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT115" t="n">
         <v>1</v>
@@ -25869,7 +25869,7 @@
         <v>0.63</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT125" t="n">
         <v>0.76</v>
@@ -26681,10 +26681,10 @@
         <v>0.7</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT129" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU129" t="n">
         <v>1.75</v>
@@ -27293,7 +27293,7 @@
         <v>1.76</v>
       </c>
       <c r="AT132" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU132" t="n">
         <v>1.91</v>
@@ -27493,7 +27493,7 @@
         <v>1.18</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT133" t="n">
         <v>1.18</v>
@@ -28308,7 +28308,7 @@
         <v>1.18</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU137" t="n">
         <v>1.39</v>
@@ -29117,7 +29117,7 @@
         <v>2.09</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT141" t="n">
         <v>2.06</v>
@@ -29929,7 +29929,7 @@
         <v>0.64</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT145" t="n">
         <v>0.65</v>
@@ -30335,7 +30335,7 @@
         <v>0.82</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT147" t="n">
         <v>0.75</v>
@@ -30744,7 +30744,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT149" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU149" t="n">
         <v>1.13</v>
@@ -31759,7 +31759,7 @@
         <v>2.88</v>
       </c>
       <c r="AT154" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU154" t="n">
         <v>2.58</v>
@@ -33177,7 +33177,7 @@
         <v>1.36</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT161" t="n">
         <v>1.18</v>
@@ -33583,7 +33583,7 @@
         <v>0.14</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT163" t="n">
         <v>0.28</v>
@@ -33992,7 +33992,7 @@
         <v>1.18</v>
       </c>
       <c r="AT165" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU165" t="n">
         <v>1.36</v>
@@ -34195,7 +34195,7 @@
         <v>1.82</v>
       </c>
       <c r="AT166" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU166" t="n">
         <v>1.37</v>
@@ -36628,7 +36628,7 @@
         <v>0.57</v>
       </c>
       <c r="AS178" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT178" t="n">
         <v>0.65</v>
@@ -36834,7 +36834,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT179" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU179" t="n">
         <v>1.11</v>
@@ -37240,7 +37240,7 @@
         <v>1</v>
       </c>
       <c r="AT181" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU181" t="n">
         <v>1.32</v>
@@ -37846,7 +37846,7 @@
         <v>0.71</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT184" t="n">
         <v>0.76</v>
@@ -38661,7 +38661,7 @@
         <v>1</v>
       </c>
       <c r="AT188" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU188" t="n">
         <v>1.31</v>
@@ -39470,7 +39470,7 @@
         <v>0.87</v>
       </c>
       <c r="AS192" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT192" t="n">
         <v>0.76</v>
@@ -39676,7 +39676,7 @@
         <v>1.63</v>
       </c>
       <c r="AT193" t="n">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AU193" t="n">
         <v>1.48</v>
@@ -39876,7 +39876,7 @@
         <v>0.8</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT194" t="n">
         <v>0.75</v>
@@ -41010,13 +41010,13 @@
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R200" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S200" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T200" t="n">
         <v>3.25</v>
@@ -41133,22 +41133,22 @@
         <v>2.65</v>
       </c>
       <c r="BF200" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG200" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH200" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI200" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BJ200" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK200" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201">
@@ -41213,13 +41213,13 @@
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R201" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S201" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T201" t="n">
         <v>3.1</v>
@@ -41336,22 +41336,22 @@
         <v>2.65</v>
       </c>
       <c r="BF201" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BG201" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH201" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BI201" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BJ201" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BK201" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202">
@@ -41416,13 +41416,13 @@
         </is>
       </c>
       <c r="Q202" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R202" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S202" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T202" t="n">
         <v>2.85</v>
@@ -41539,22 +41539,22 @@
         <v>3.15</v>
       </c>
       <c r="BF202" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BG202" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH202" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BI202" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BJ202" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="BK202" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203">
@@ -41619,13 +41619,13 @@
         </is>
       </c>
       <c r="Q203" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R203" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S203" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T203" t="n">
         <v>2.65</v>
@@ -41742,22 +41742,428 @@
         <v>2.6</v>
       </c>
       <c r="BF203" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BG203" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH203" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI203" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BJ203" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK203" t="n">
-        <v>-1</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5976024</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45053.42708333334</v>
+      </c>
+      <c r="F204" t="n">
+        <v>34</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" t="n">
+        <v>2</v>
+      </c>
+      <c r="N204" t="n">
+        <v>2</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['67', '80']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>6</v>
+      </c>
+      <c r="R204" t="n">
+        <v>5</v>
+      </c>
+      <c r="S204" t="n">
+        <v>11</v>
+      </c>
+      <c r="T204" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V204" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X204" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5976025</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45053.45833333334</v>
+      </c>
+      <c r="F205" t="n">
+        <v>34</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>12</v>
+      </c>
+      <c r="R205" t="n">
+        <v>6</v>
+      </c>
+      <c r="S205" t="n">
+        <v>18</v>
+      </c>
+      <c r="T205" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V205" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X205" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK205"/>
+  <dimension ref="A1:BK206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.71</v>
+        <v>2.56</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT10" t="n">
         <v>0.28</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT16" t="n">
         <v>1.18</v>
@@ -4151,7 +4151,7 @@
         <v>1.63</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.71</v>
+        <v>2.56</v>
       </c>
       <c r="AU18" t="n">
         <v>2.08</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT28" t="n">
         <v>0.75</v>
@@ -6587,7 +6587,7 @@
         <v>1.18</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.71</v>
+        <v>2.56</v>
       </c>
       <c r="AU30" t="n">
         <v>1.54</v>
@@ -8208,7 +8208,7 @@
         <v>0.67</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT38" t="n">
         <v>0.65</v>
@@ -9023,7 +9023,7 @@
         <v>1.82</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.71</v>
+        <v>2.56</v>
       </c>
       <c r="AU42" t="n">
         <v>1.42</v>
@@ -11053,7 +11053,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.71</v>
+        <v>2.56</v>
       </c>
       <c r="AU52" t="n">
         <v>1.05</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT55" t="n">
         <v>0.76</v>
@@ -13895,7 +13895,7 @@
         <v>2</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.71</v>
+        <v>2.56</v>
       </c>
       <c r="AU66" t="n">
         <v>1.76</v>
@@ -14704,7 +14704,7 @@
         <v>0.75</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT70" t="n">
         <v>0.82</v>
@@ -15313,7 +15313,7 @@
         <v>1.17</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT73" t="n">
         <v>0.9399999999999999</v>
@@ -15722,7 +15722,7 @@
         <v>1.65</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.71</v>
+        <v>2.56</v>
       </c>
       <c r="AU75" t="n">
         <v>1.48</v>
@@ -17952,7 +17952,7 @@
         <v>1.14</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT86" t="n">
         <v>0.82</v>
@@ -18158,7 +18158,7 @@
         <v>1.06</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.71</v>
+        <v>2.56</v>
       </c>
       <c r="AU87" t="n">
         <v>1.48</v>
@@ -19779,7 +19779,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT95" t="n">
         <v>1</v>
@@ -19985,7 +19985,7 @@
         <v>2.18</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.71</v>
+        <v>2.56</v>
       </c>
       <c r="AU96" t="n">
         <v>1.51</v>
@@ -22621,7 +22621,7 @@
         <v>1.44</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT109" t="n">
         <v>1.29</v>
@@ -23233,7 +23233,7 @@
         <v>1.76</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.71</v>
+        <v>2.56</v>
       </c>
       <c r="AU112" t="n">
         <v>2.07</v>
@@ -23433,10 +23433,10 @@
         <v>2.7</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT113" t="n">
-        <v>2.71</v>
+        <v>2.56</v>
       </c>
       <c r="AU113" t="n">
         <v>2.64</v>
@@ -27493,7 +27493,7 @@
         <v>1.18</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT133" t="n">
         <v>1.18</v>
@@ -28308,7 +28308,7 @@
         <v>1.18</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.71</v>
+        <v>2.56</v>
       </c>
       <c r="AU137" t="n">
         <v>1.39</v>
@@ -30335,7 +30335,7 @@
         <v>0.82</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT147" t="n">
         <v>0.75</v>
@@ -30744,7 +30744,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT149" t="n">
-        <v>2.71</v>
+        <v>2.56</v>
       </c>
       <c r="AU149" t="n">
         <v>1.13</v>
@@ -33583,7 +33583,7 @@
         <v>0.14</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT163" t="n">
         <v>0.28</v>
@@ -34195,7 +34195,7 @@
         <v>1.82</v>
       </c>
       <c r="AT166" t="n">
-        <v>2.71</v>
+        <v>2.56</v>
       </c>
       <c r="AU166" t="n">
         <v>1.37</v>
@@ -36628,7 +36628,7 @@
         <v>0.57</v>
       </c>
       <c r="AS178" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT178" t="n">
         <v>0.65</v>
@@ -37240,7 +37240,7 @@
         <v>1</v>
       </c>
       <c r="AT181" t="n">
-        <v>2.71</v>
+        <v>2.56</v>
       </c>
       <c r="AU181" t="n">
         <v>1.32</v>
@@ -39470,7 +39470,7 @@
         <v>0.87</v>
       </c>
       <c r="AS192" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT192" t="n">
         <v>0.76</v>
@@ -39676,7 +39676,7 @@
         <v>1.63</v>
       </c>
       <c r="AT193" t="n">
-        <v>2.71</v>
+        <v>2.56</v>
       </c>
       <c r="AU193" t="n">
         <v>1.48</v>
@@ -41909,7 +41909,7 @@
         <v>2</v>
       </c>
       <c r="AT204" t="n">
-        <v>2.71</v>
+        <v>2.56</v>
       </c>
       <c r="AU204" t="n">
         <v>1.74</v>
@@ -42109,7 +42109,7 @@
         <v>1</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT205" t="n">
         <v>0.9399999999999999</v>
@@ -42164,6 +42164,209 @@
       </c>
       <c r="BK205" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5976026</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45059.35416666666</v>
+      </c>
+      <c r="F206" t="n">
+        <v>35</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>2</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>2</v>
+      </c>
+      <c r="L206" t="n">
+        <v>3</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>3</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['5', '34', '70']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>5</v>
+      </c>
+      <c r="R206" t="n">
+        <v>5</v>
+      </c>
+      <c r="S206" t="n">
+        <v>10</v>
+      </c>
+      <c r="T206" t="n">
+        <v>3</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V206" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X206" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK206"/>
+  <dimension ref="A1:BK211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT4" t="n">
         <v>0.65</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT11" t="n">
         <v>0.76</v>
@@ -2933,7 +2933,7 @@
         <v>1.76</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU14" t="n">
         <v>0.75</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU17" t="n">
         <v>1.61</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT18" t="n">
         <v>2.56</v>
@@ -4760,7 +4760,7 @@
         <v>1.06</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU21" t="n">
         <v>0.34</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT23" t="n">
         <v>0.9399999999999999</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT24" t="n">
         <v>0.76</v>
@@ -5572,7 +5572,7 @@
         <v>2.88</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU25" t="n">
         <v>2.68</v>
@@ -5772,10 +5772,10 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU26" t="n">
         <v>1.02</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU27" t="n">
         <v>1.62</v>
@@ -6181,7 +6181,7 @@
         <v>2.78</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU28" t="n">
         <v>2.53</v>
@@ -6381,7 +6381,7 @@
         <v>1.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT29" t="n">
         <v>1</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT30" t="n">
         <v>2.56</v>
@@ -7193,7 +7193,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT33" t="n">
         <v>0.76</v>
@@ -8008,7 +8008,7 @@
         <v>1.65</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU37" t="n">
         <v>1.17</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU41" t="n">
         <v>0.93</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT42" t="n">
         <v>2.56</v>
@@ -9226,7 +9226,7 @@
         <v>1.06</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU43" t="n">
         <v>1.2</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT46" t="n">
         <v>1.18</v>
@@ -10038,7 +10038,7 @@
         <v>2.88</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU47" t="n">
         <v>2.23</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT48" t="n">
         <v>0.28</v>
@@ -10441,10 +10441,10 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU49" t="n">
         <v>1.27</v>
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU50" t="n">
         <v>1.1</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT51" t="n">
         <v>1.18</v>
@@ -11050,7 +11050,7 @@
         <v>2.25</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT52" t="n">
         <v>2.56</v>
@@ -11256,7 +11256,7 @@
         <v>1.76</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU53" t="n">
         <v>1.97</v>
@@ -11459,7 +11459,7 @@
         <v>1.65</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU54" t="n">
         <v>1.22</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT56" t="n">
         <v>0.9399999999999999</v>
@@ -12065,10 +12065,10 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU57" t="n">
         <v>1.57</v>
@@ -12268,7 +12268,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT62" t="n">
         <v>0.28</v>
@@ -13486,10 +13486,10 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU64" t="n">
         <v>1.54</v>
@@ -14298,10 +14298,10 @@
         <v>0.8</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU68" t="n">
         <v>1.55</v>
@@ -14501,7 +14501,7 @@
         <v>0.6</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT69" t="n">
         <v>0.65</v>
@@ -14707,7 +14707,7 @@
         <v>2.78</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU70" t="n">
         <v>2.62</v>
@@ -14907,10 +14907,10 @@
         <v>1.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU71" t="n">
         <v>1.55</v>
@@ -15516,7 +15516,7 @@
         <v>0.17</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT74" t="n">
         <v>0.28</v>
@@ -15925,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU76" t="n">
         <v>1.07</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT77" t="n">
         <v>1</v>
@@ -16328,10 +16328,10 @@
         <v>0.8</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU78" t="n">
         <v>1.49</v>
@@ -16937,7 +16937,7 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT81" t="n">
         <v>2.06</v>
@@ -17143,7 +17143,7 @@
         <v>2</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU82" t="n">
         <v>1.82</v>
@@ -17549,7 +17549,7 @@
         <v>1.76</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU84" t="n">
         <v>1.89</v>
@@ -17749,7 +17749,7 @@
         <v>1.29</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT85" t="n">
         <v>1.18</v>
@@ -17955,7 +17955,7 @@
         <v>2.78</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU86" t="n">
         <v>2.79</v>
@@ -18358,7 +18358,7 @@
         <v>0.14</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT88" t="n">
         <v>0.28</v>
@@ -18561,7 +18561,7 @@
         <v>1.67</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT89" t="n">
         <v>2.06</v>
@@ -18767,7 +18767,7 @@
         <v>2</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU90" t="n">
         <v>1.81</v>
@@ -18967,7 +18967,7 @@
         <v>0.86</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT91" t="n">
         <v>1</v>
@@ -19170,10 +19170,10 @@
         <v>1.5</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU92" t="n">
         <v>1.03</v>
@@ -19376,7 +19376,7 @@
         <v>2.88</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU93" t="n">
         <v>2.4</v>
@@ -19576,7 +19576,7 @@
         <v>0.43</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT94" t="n">
         <v>0.65</v>
@@ -19982,7 +19982,7 @@
         <v>2.63</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT96" t="n">
         <v>2.56</v>
@@ -20591,7 +20591,7 @@
         <v>1.57</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT99" t="n">
         <v>2.06</v>
@@ -20797,7 +20797,7 @@
         <v>2.88</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU100" t="n">
         <v>2.43</v>
@@ -21606,7 +21606,7 @@
         <v>0.88</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT104" t="n">
         <v>0.9399999999999999</v>
@@ -21809,10 +21809,10 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU105" t="n">
         <v>1.48</v>
@@ -22015,7 +22015,7 @@
         <v>1.76</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU106" t="n">
         <v>1.92</v>
@@ -22418,7 +22418,7 @@
         <v>0.78</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT108" t="n">
         <v>0.9399999999999999</v>
@@ -22624,7 +22624,7 @@
         <v>2.78</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU109" t="n">
         <v>2.69</v>
@@ -22824,10 +22824,10 @@
         <v>1</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU110" t="n">
         <v>1.04</v>
@@ -23027,10 +23027,10 @@
         <v>0.88</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU111" t="n">
         <v>1.45</v>
@@ -23636,10 +23636,10 @@
         <v>0.78</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU114" t="n">
         <v>1.35</v>
@@ -24042,7 +24042,7 @@
         <v>0.57</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT116" t="n">
         <v>0.76</v>
@@ -24248,7 +24248,7 @@
         <v>1.65</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU117" t="n">
         <v>1.32</v>
@@ -24448,7 +24448,7 @@
         <v>0.38</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT118" t="n">
         <v>0.65</v>
@@ -24651,10 +24651,10 @@
         <v>1.2</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU119" t="n">
         <v>1.38</v>
@@ -25057,7 +25057,7 @@
         <v>1.3</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT121" t="n">
         <v>1.18</v>
@@ -25263,7 +25263,7 @@
         <v>1</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU122" t="n">
         <v>1.13</v>
@@ -25666,7 +25666,7 @@
         <v>1.89</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT124" t="n">
         <v>2.06</v>
@@ -26072,10 +26072,10 @@
         <v>1.1</v>
       </c>
       <c r="AS126" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU126" t="n">
         <v>1.11</v>
@@ -26481,7 +26481,7 @@
         <v>1.06</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU128" t="n">
         <v>1.45</v>
@@ -27087,7 +27087,7 @@
         <v>2</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT131" t="n">
         <v>2.06</v>
@@ -27899,10 +27899,10 @@
         <v>1.27</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU135" t="n">
         <v>1.39</v>
@@ -28105,7 +28105,7 @@
         <v>1.65</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU136" t="n">
         <v>1.35</v>
@@ -28305,7 +28305,7 @@
         <v>2.55</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT137" t="n">
         <v>2.56</v>
@@ -28914,7 +28914,7 @@
         <v>0.7</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT140" t="n">
         <v>0.65</v>
@@ -29323,7 +29323,7 @@
         <v>2.88</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU142" t="n">
         <v>2.64</v>
@@ -29523,7 +29523,7 @@
         <v>0.5</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT143" t="n">
         <v>0.76</v>
@@ -29726,10 +29726,10 @@
         <v>1.17</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU144" t="n">
         <v>1.49</v>
@@ -30338,7 +30338,7 @@
         <v>2.78</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU147" t="n">
         <v>2.56</v>
@@ -30538,7 +30538,7 @@
         <v>0.83</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT148" t="n">
         <v>1</v>
@@ -30741,7 +30741,7 @@
         <v>2.58</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT149" t="n">
         <v>2.56</v>
@@ -31553,10 +31553,10 @@
         <v>0.75</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU153" t="n">
         <v>1.36</v>
@@ -31959,7 +31959,7 @@
         <v>1.23</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT155" t="n">
         <v>1.18</v>
@@ -32165,7 +32165,7 @@
         <v>1.06</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU156" t="n">
         <v>1.35</v>
@@ -32568,10 +32568,10 @@
         <v>1.08</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU158" t="n">
         <v>1.52</v>
@@ -32771,7 +32771,7 @@
         <v>0.67</v>
       </c>
       <c r="AS159" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT159" t="n">
         <v>0.76</v>
@@ -32974,10 +32974,10 @@
         <v>1.17</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU160" t="n">
         <v>1.51</v>
@@ -33789,7 +33789,7 @@
         <v>1</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU164" t="n">
         <v>1.29</v>
@@ -33989,7 +33989,7 @@
         <v>0.54</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT165" t="n">
         <v>0.9399999999999999</v>
@@ -34192,7 +34192,7 @@
         <v>2.62</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT166" t="n">
         <v>2.56</v>
@@ -34804,7 +34804,7 @@
         <v>2.88</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU169" t="n">
         <v>2.58</v>
@@ -35210,7 +35210,7 @@
         <v>1.65</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU171" t="n">
         <v>1.34</v>
@@ -35410,7 +35410,7 @@
         <v>1.27</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT172" t="n">
         <v>1.18</v>
@@ -35613,10 +35613,10 @@
         <v>1</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU173" t="n">
         <v>1.51</v>
@@ -36019,7 +36019,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT175" t="n">
         <v>0.76</v>
@@ -36225,7 +36225,7 @@
         <v>1.76</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU176" t="n">
         <v>1.84</v>
@@ -36425,10 +36425,10 @@
         <v>0.93</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU177" t="n">
         <v>1.48</v>
@@ -36831,7 +36831,7 @@
         <v>0.71</v>
       </c>
       <c r="AS179" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT179" t="n">
         <v>0.9399999999999999</v>
@@ -37034,10 +37034,10 @@
         <v>1.08</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU180" t="n">
         <v>1.3</v>
@@ -37646,7 +37646,7 @@
         <v>1.06</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU183" t="n">
         <v>1.28</v>
@@ -38049,10 +38049,10 @@
         <v>0.64</v>
       </c>
       <c r="AS185" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU185" t="n">
         <v>1.14</v>
@@ -38252,7 +38252,7 @@
         <v>0.13</v>
       </c>
       <c r="AS186" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT186" t="n">
         <v>0.28</v>
@@ -38455,7 +38455,7 @@
         <v>1.07</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT187" t="n">
         <v>1</v>
@@ -38864,7 +38864,7 @@
         <v>1.76</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU189" t="n">
         <v>1.79</v>
@@ -39673,7 +39673,7 @@
         <v>2.67</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT193" t="n">
         <v>2.56</v>
@@ -39879,7 +39879,7 @@
         <v>2</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AU194" t="n">
         <v>1.68</v>
@@ -40082,7 +40082,7 @@
         <v>2.88</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AU195" t="n">
         <v>2.5</v>
@@ -40282,10 +40282,10 @@
         <v>0.93</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU196" t="n">
         <v>1.38</v>
@@ -40485,7 +40485,7 @@
         <v>1</v>
       </c>
       <c r="AS197" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT197" t="n">
         <v>1</v>
@@ -40688,7 +40688,7 @@
         <v>0.13</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AT198" t="n">
         <v>0.28</v>
@@ -40891,7 +40891,7 @@
         <v>2.19</v>
       </c>
       <c r="AS199" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="AT199" t="n">
         <v>2.06</v>
@@ -41097,7 +41097,7 @@
         <v>1</v>
       </c>
       <c r="AT200" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU200" t="n">
         <v>1.34</v>
@@ -41297,7 +41297,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS201" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AT201" t="n">
         <v>0.65</v>
@@ -42354,18 +42354,1033 @@
         <v>9</v>
       </c>
       <c r="BG206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH206" t="n">
         <v>8</v>
       </c>
       <c r="BI206" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ206" t="n">
         <v>17</v>
       </c>
       <c r="BK206" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5976027</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45059.45833333334</v>
+      </c>
+      <c r="F207" t="n">
+        <v>35</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>3</v>
+      </c>
+      <c r="R207" t="n">
+        <v>8</v>
+      </c>
+      <c r="S207" t="n">
+        <v>11</v>
+      </c>
+      <c r="T207" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V207" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X207" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5976028</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45059.45833333334</v>
+      </c>
+      <c r="F208" t="n">
+        <v>35</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>2</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>2</v>
+      </c>
+      <c r="L208" t="n">
+        <v>2</v>
+      </c>
+      <c r="M208" t="n">
+        <v>2</v>
+      </c>
+      <c r="N208" t="n">
+        <v>4</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['36', '45+4']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['73', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>7</v>
+      </c>
+      <c r="R208" t="n">
+        <v>4</v>
+      </c>
+      <c r="S208" t="n">
+        <v>11</v>
+      </c>
+      <c r="T208" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V208" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X208" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5976029</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45059.45833333334</v>
+      </c>
+      <c r="F209" t="n">
+        <v>35</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Dundee United</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
+      <c r="K209" t="n">
+        <v>2</v>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="n">
+        <v>3</v>
+      </c>
+      <c r="N209" t="n">
+        <v>4</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['1', '57', '72']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>6</v>
+      </c>
+      <c r="R209" t="n">
+        <v>5</v>
+      </c>
+      <c r="S209" t="n">
+        <v>11</v>
+      </c>
+      <c r="T209" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V209" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X209" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5976030</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45059.45833333334</v>
+      </c>
+      <c r="F210" t="n">
+        <v>35</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>2</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>2</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['48', '64']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>2</v>
+      </c>
+      <c r="R210" t="n">
+        <v>5</v>
+      </c>
+      <c r="S210" t="n">
+        <v>7</v>
+      </c>
+      <c r="T210" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V210" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X210" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5976031</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45059.45833333334</v>
+      </c>
+      <c r="F211" t="n">
+        <v>35</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
+        <v>2</v>
+      </c>
+      <c r="N211" t="n">
+        <v>2</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['52', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>6</v>
+      </c>
+      <c r="R211" t="n">
+        <v>4</v>
+      </c>
+      <c r="S211" t="n">
+        <v>10</v>
+      </c>
+      <c r="T211" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U211" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V211" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK211" t="n">
         <v>9</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK211"/>
+  <dimension ref="A1:BK216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT2" t="n">
         <v>2.06</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2.11</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -3745,7 +3745,7 @@
         <v>2.78</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU16" t="n">
         <v>2.09</v>
@@ -3948,7 +3948,7 @@
         <v>1.78</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU17" t="n">
         <v>1.61</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT18" t="n">
         <v>2.56</v>
@@ -4351,10 +4351,10 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU19" t="n">
         <v>1.58</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT21" t="n">
         <v>0.78</v>
@@ -5166,7 +5166,7 @@
         <v>0.89</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU23" t="n">
         <v>0.58</v>
@@ -5369,7 +5369,7 @@
         <v>1.11</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU24" t="n">
         <v>1.5</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="AT25" t="n">
         <v>0.83</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT27" t="n">
         <v>1.39</v>
@@ -6181,7 +6181,7 @@
         <v>2.78</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU28" t="n">
         <v>2.53</v>
@@ -6787,10 +6787,10 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU31" t="n">
         <v>1.71</v>
@@ -6990,7 +6990,7 @@
         <v>2</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="AT32" t="n">
         <v>2.06</v>
@@ -7196,7 +7196,7 @@
         <v>0.89</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU33" t="n">
         <v>0.82</v>
@@ -7396,10 +7396,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU34" t="n">
         <v>0.85</v>
@@ -7602,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU35" t="n">
         <v>1.09</v>
@@ -8005,7 +8005,7 @@
         <v>0.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT37" t="n">
         <v>0.83</v>
@@ -8211,7 +8211,7 @@
         <v>2.78</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU38" t="n">
         <v>2.8</v>
@@ -8414,7 +8414,7 @@
         <v>1.76</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU39" t="n">
         <v>1.67</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT40" t="n">
         <v>0.28</v>
@@ -8820,7 +8820,7 @@
         <v>0.89</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU41" t="n">
         <v>0.93</v>
@@ -9223,7 +9223,7 @@
         <v>0.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT43" t="n">
         <v>0.83</v>
@@ -9426,7 +9426,7 @@
         <v>1.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT44" t="n">
         <v>2.06</v>
@@ -9835,7 +9835,7 @@
         <v>1.11</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU46" t="n">
         <v>1.31</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="AT47" t="n">
         <v>1.39</v>
@@ -10847,10 +10847,10 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU51" t="n">
         <v>1.74</v>
@@ -11456,10 +11456,10 @@
         <v>0.25</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU54" t="n">
         <v>1.22</v>
@@ -11662,7 +11662,7 @@
         <v>2.78</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU55" t="n">
         <v>2.69</v>
@@ -11865,7 +11865,7 @@
         <v>1.11</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU56" t="n">
         <v>1.49</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT57" t="n">
         <v>0.83</v>
@@ -12471,7 +12471,7 @@
         <v>1.2</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="AT59" t="n">
         <v>1</v>
@@ -12674,10 +12674,10 @@
         <v>1.2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU60" t="n">
         <v>1.36</v>
@@ -12880,7 +12880,7 @@
         <v>1</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU61" t="n">
         <v>1.1</v>
@@ -13283,7 +13283,7 @@
         <v>1.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT63" t="n">
         <v>2.06</v>
@@ -13692,7 +13692,7 @@
         <v>1.76</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU65" t="n">
         <v>1.93</v>
@@ -13892,7 +13892,7 @@
         <v>2.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT66" t="n">
         <v>2.56</v>
@@ -14095,10 +14095,10 @@
         <v>0.8</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU67" t="n">
         <v>1.43</v>
@@ -14298,10 +14298,10 @@
         <v>0.8</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU68" t="n">
         <v>1.55</v>
@@ -14504,7 +14504,7 @@
         <v>1.78</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU69" t="n">
         <v>1.23</v>
@@ -15113,7 +15113,7 @@
         <v>1.76</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU72" t="n">
         <v>1.9</v>
@@ -15316,7 +15316,7 @@
         <v>2.78</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU73" t="n">
         <v>2.63</v>
@@ -15719,7 +15719,7 @@
         <v>2.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT75" t="n">
         <v>2.56</v>
@@ -16328,7 +16328,7 @@
         <v>0.8</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT78" t="n">
         <v>0.78</v>
@@ -16534,7 +16534,7 @@
         <v>1</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU79" t="n">
         <v>1.23</v>
@@ -16734,10 +16734,10 @@
         <v>0.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU80" t="n">
         <v>2.25</v>
@@ -17140,7 +17140,7 @@
         <v>1.71</v>
       </c>
       <c r="AS82" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT82" t="n">
         <v>1.39</v>
@@ -17343,10 +17343,10 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU83" t="n">
         <v>1.37</v>
@@ -17549,7 +17549,7 @@
         <v>1.76</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU84" t="n">
         <v>1.89</v>
@@ -17752,7 +17752,7 @@
         <v>1.78</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU85" t="n">
         <v>1.29</v>
@@ -18155,7 +18155,7 @@
         <v>2.57</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT87" t="n">
         <v>2.56</v>
@@ -18764,7 +18764,7 @@
         <v>1.17</v>
       </c>
       <c r="AS90" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT90" t="n">
         <v>0.78</v>
@@ -18967,7 +18967,7 @@
         <v>0.86</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT91" t="n">
         <v>1</v>
@@ -19373,10 +19373,10 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU93" t="n">
         <v>2.4</v>
@@ -19579,7 +19579,7 @@
         <v>2.11</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU94" t="n">
         <v>1.58</v>
@@ -20188,7 +20188,7 @@
         <v>1</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU97" t="n">
         <v>1.25</v>
@@ -20388,7 +20388,7 @@
         <v>0.13</v>
       </c>
       <c r="AS98" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT98" t="n">
         <v>0.28</v>
@@ -20794,7 +20794,7 @@
         <v>1.14</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="AT100" t="n">
         <v>0.78</v>
@@ -21200,7 +21200,7 @@
         <v>0.11</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT102" t="n">
         <v>0.28</v>
@@ -21403,10 +21403,10 @@
         <v>1.44</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU103" t="n">
         <v>2.57</v>
@@ -21609,7 +21609,7 @@
         <v>1.78</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU104" t="n">
         <v>1.31</v>
@@ -22215,10 +22215,10 @@
         <v>0.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU107" t="n">
         <v>1.35</v>
@@ -22418,10 +22418,10 @@
         <v>0.78</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU108" t="n">
         <v>1.42</v>
@@ -23030,7 +23030,7 @@
         <v>1.11</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU111" t="n">
         <v>1.45</v>
@@ -23639,7 +23639,7 @@
         <v>2.11</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU114" t="n">
         <v>1.35</v>
@@ -23839,7 +23839,7 @@
         <v>0.67</v>
       </c>
       <c r="AS115" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT115" t="n">
         <v>1</v>
@@ -24042,10 +24042,10 @@
         <v>0.57</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU116" t="n">
         <v>1.44</v>
@@ -24245,7 +24245,7 @@
         <v>1.3</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT117" t="n">
         <v>1.39</v>
@@ -24451,7 +24451,7 @@
         <v>0.89</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU118" t="n">
         <v>1.12</v>
@@ -24854,7 +24854,7 @@
         <v>0.2</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="AT120" t="n">
         <v>0.28</v>
@@ -25060,7 +25060,7 @@
         <v>2.11</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU121" t="n">
         <v>1.47</v>
@@ -25463,7 +25463,7 @@
         <v>0.6</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT123" t="n">
         <v>1</v>
@@ -25869,10 +25869,10 @@
         <v>0.63</v>
       </c>
       <c r="AS125" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU125" t="n">
         <v>1.8</v>
@@ -26278,7 +26278,7 @@
         <v>1.76</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU127" t="n">
         <v>1.95</v>
@@ -26478,10 +26478,10 @@
         <v>0.8</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU128" t="n">
         <v>1.45</v>
@@ -26681,10 +26681,10 @@
         <v>0.7</v>
       </c>
       <c r="AS129" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU129" t="n">
         <v>1.75</v>
@@ -26884,10 +26884,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU130" t="n">
         <v>2.67</v>
@@ -27087,7 +27087,7 @@
         <v>2</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT131" t="n">
         <v>2.06</v>
@@ -27293,7 +27293,7 @@
         <v>1.76</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU132" t="n">
         <v>1.91</v>
@@ -27496,7 +27496,7 @@
         <v>2.78</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU133" t="n">
         <v>2.55</v>
@@ -28102,7 +28102,7 @@
         <v>1.18</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT136" t="n">
         <v>0.83</v>
@@ -28711,10 +28711,10 @@
         <v>1.08</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU139" t="n">
         <v>1.42</v>
@@ -28914,10 +28914,10 @@
         <v>0.7</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU140" t="n">
         <v>1.43</v>
@@ -29117,7 +29117,7 @@
         <v>2.09</v>
       </c>
       <c r="AS141" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT141" t="n">
         <v>2.06</v>
@@ -29320,7 +29320,7 @@
         <v>1.27</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="AT142" t="n">
         <v>0.78</v>
@@ -29526,7 +29526,7 @@
         <v>2.11</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU143" t="n">
         <v>1.53</v>
@@ -29929,10 +29929,10 @@
         <v>0.64</v>
       </c>
       <c r="AS145" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU145" t="n">
         <v>1.68</v>
@@ -30132,7 +30132,7 @@
         <v>0.17</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT146" t="n">
         <v>0.28</v>
@@ -30338,7 +30338,7 @@
         <v>2.78</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU147" t="n">
         <v>2.56</v>
@@ -30944,10 +30944,10 @@
         <v>0.73</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU150" t="n">
         <v>1.37</v>
@@ -31147,7 +31147,7 @@
         <v>2.17</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT151" t="n">
         <v>2.06</v>
@@ -31556,7 +31556,7 @@
         <v>1.78</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU153" t="n">
         <v>1.36</v>
@@ -31756,10 +31756,10 @@
         <v>0.58</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU154" t="n">
         <v>2.58</v>
@@ -31962,7 +31962,7 @@
         <v>1.11</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU155" t="n">
         <v>1.33</v>
@@ -32162,7 +32162,7 @@
         <v>1.17</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT156" t="n">
         <v>0.83</v>
@@ -32368,7 +32368,7 @@
         <v>1</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU157" t="n">
         <v>1.18</v>
@@ -32568,7 +32568,7 @@
         <v>1.08</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT158" t="n">
         <v>1.39</v>
@@ -32774,7 +32774,7 @@
         <v>0.89</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU159" t="n">
         <v>1.12</v>
@@ -33177,10 +33177,10 @@
         <v>1.36</v>
       </c>
       <c r="AS161" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU161" t="n">
         <v>1.72</v>
@@ -33380,7 +33380,7 @@
         <v>1</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT162" t="n">
         <v>1</v>
@@ -33992,7 +33992,7 @@
         <v>1.11</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU165" t="n">
         <v>1.36</v>
@@ -34598,10 +34598,10 @@
         <v>0.54</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU168" t="n">
         <v>1.28</v>
@@ -34801,7 +34801,7 @@
         <v>1.08</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="AT169" t="n">
         <v>0.83</v>
@@ -35004,7 +35004,7 @@
         <v>2.29</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT170" t="n">
         <v>2.06</v>
@@ -35207,10 +35207,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU171" t="n">
         <v>1.34</v>
@@ -35410,10 +35410,10 @@
         <v>1.27</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU172" t="n">
         <v>1.48</v>
@@ -35816,7 +35816,7 @@
         <v>1.14</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="AT174" t="n">
         <v>1</v>
@@ -36022,7 +36022,7 @@
         <v>1.11</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU175" t="n">
         <v>1.4</v>
@@ -36425,7 +36425,7 @@
         <v>0.93</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT177" t="n">
         <v>0.83</v>
@@ -36631,7 +36631,7 @@
         <v>2.78</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU178" t="n">
         <v>2.53</v>
@@ -36834,7 +36834,7 @@
         <v>0.89</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU179" t="n">
         <v>1.11</v>
@@ -37440,7 +37440,7 @@
         <v>2.33</v>
       </c>
       <c r="AS182" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="AT182" t="n">
         <v>2.06</v>
@@ -37643,7 +37643,7 @@
         <v>1</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT183" t="n">
         <v>0.78</v>
@@ -37846,10 +37846,10 @@
         <v>0.71</v>
       </c>
       <c r="AS184" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU184" t="n">
         <v>1.72</v>
@@ -38052,7 +38052,7 @@
         <v>0.89</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU185" t="n">
         <v>1.14</v>
@@ -38661,7 +38661,7 @@
         <v>1</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU188" t="n">
         <v>1.31</v>
@@ -39064,10 +39064,10 @@
         <v>1.25</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU190" t="n">
         <v>1.37</v>
@@ -39267,10 +39267,10 @@
         <v>0.53</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU191" t="n">
         <v>1.28</v>
@@ -39473,7 +39473,7 @@
         <v>2.78</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU192" t="n">
         <v>2.53</v>
@@ -39673,7 +39673,7 @@
         <v>2.67</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT193" t="n">
         <v>2.56</v>
@@ -39876,10 +39876,10 @@
         <v>0.8</v>
       </c>
       <c r="AS194" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU194" t="n">
         <v>1.68</v>
@@ -40079,7 +40079,7 @@
         <v>1.31</v>
       </c>
       <c r="AS195" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="AT195" t="n">
         <v>1.39</v>
@@ -41300,7 +41300,7 @@
         <v>0.89</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU201" t="n">
         <v>1.18</v>
@@ -41500,7 +41500,7 @@
         <v>0.29</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT202" t="n">
         <v>0.28</v>
@@ -41706,7 +41706,7 @@
         <v>1.76</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU203" t="n">
         <v>1.76</v>
@@ -41906,7 +41906,7 @@
         <v>2.69</v>
       </c>
       <c r="AS204" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AT204" t="n">
         <v>2.56</v>
@@ -42112,7 +42112,7 @@
         <v>2.78</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU205" t="n">
         <v>2.53</v>
@@ -42924,7 +42924,7 @@
         <v>1.11</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU209" t="n">
         <v>1.35</v>
@@ -43124,7 +43124,7 @@
         <v>0.82</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AT210" t="n">
         <v>0.78</v>
@@ -43382,6 +43382,1021 @@
       </c>
       <c r="BK211" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5976033</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45066.35416666666</v>
+      </c>
+      <c r="F212" t="n">
+        <v>36</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
+      <c r="K212" t="n">
+        <v>2</v>
+      </c>
+      <c r="L212" t="n">
+        <v>2</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="n">
+        <v>3</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>['43', '56']</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R212" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S212" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T212" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U212" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V212" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X212" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5976036</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45066.45833333334</v>
+      </c>
+      <c r="F213" t="n">
+        <v>36</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>['90+9']</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>3</v>
+      </c>
+      <c r="R213" t="n">
+        <v>4</v>
+      </c>
+      <c r="S213" t="n">
+        <v>7</v>
+      </c>
+      <c r="T213" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U213" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V213" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X213" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5976035</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45066.45833333334</v>
+      </c>
+      <c r="F214" t="n">
+        <v>36</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Dundee United</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
+      <c r="K214" t="n">
+        <v>2</v>
+      </c>
+      <c r="L214" t="n">
+        <v>2</v>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="n">
+        <v>3</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>['11', '59']</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>1</v>
+      </c>
+      <c r="R214" t="n">
+        <v>12</v>
+      </c>
+      <c r="S214" t="n">
+        <v>13</v>
+      </c>
+      <c r="T214" t="n">
+        <v>3</v>
+      </c>
+      <c r="U214" t="n">
+        <v>2</v>
+      </c>
+      <c r="V214" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X214" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5976034</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45066.45833333334</v>
+      </c>
+      <c r="F215" t="n">
+        <v>36</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>3</v>
+      </c>
+      <c r="R215" t="n">
+        <v>8</v>
+      </c>
+      <c r="S215" t="n">
+        <v>11</v>
+      </c>
+      <c r="T215" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U215" t="n">
+        <v>2</v>
+      </c>
+      <c r="V215" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X215" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5976032</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45066.45833333334</v>
+      </c>
+      <c r="F216" t="n">
+        <v>36</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>2</v>
+      </c>
+      <c r="K216" t="n">
+        <v>3</v>
+      </c>
+      <c r="L216" t="n">
+        <v>2</v>
+      </c>
+      <c r="M216" t="n">
+        <v>2</v>
+      </c>
+      <c r="N216" t="n">
+        <v>4</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>['14', '81']</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>['4', '39']</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>14</v>
+      </c>
+      <c r="R216" t="n">
+        <v>2</v>
+      </c>
+      <c r="S216" t="n">
+        <v>16</v>
+      </c>
+      <c r="T216" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U216" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V216" t="n">
+        <v>10</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X216" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>19</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK216"/>
+  <dimension ref="A1:BK217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.72</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT12" t="n">
         <v>0.83</v>
@@ -4554,10 +4554,10 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AU20" t="n">
         <v>1.23</v>
@@ -6993,7 +6993,7 @@
         <v>2.78</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AU32" t="n">
         <v>2.39</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT36" t="n">
         <v>0.28</v>
@@ -8411,7 +8411,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT39" t="n">
         <v>0.89</v>
@@ -9429,7 +9429,7 @@
         <v>2.06</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AU44" t="n">
         <v>2.05</v>
@@ -11253,7 +11253,7 @@
         <v>1.8</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT53" t="n">
         <v>1.39</v>
@@ -13286,7 +13286,7 @@
         <v>1.17</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AU63" t="n">
         <v>1.58</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT65" t="n">
         <v>1.28</v>
@@ -15110,7 +15110,7 @@
         <v>0.75</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT72" t="n">
         <v>0.78</v>
@@ -16940,7 +16940,7 @@
         <v>0.89</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AU81" t="n">
         <v>1.05</v>
@@ -17546,7 +17546,7 @@
         <v>0.67</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT84" t="n">
         <v>0.83</v>
@@ -18564,7 +18564,7 @@
         <v>1.78</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AU89" t="n">
         <v>1.33</v>
@@ -20594,7 +20594,7 @@
         <v>2.11</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AU99" t="n">
         <v>1.37</v>
@@ -21000,7 +21000,7 @@
         <v>1</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AU101" t="n">
         <v>1.17</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT106" t="n">
         <v>0.78</v>
@@ -23230,7 +23230,7 @@
         <v>2.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT112" t="n">
         <v>2.56</v>
@@ -25669,7 +25669,7 @@
         <v>1.11</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AU124" t="n">
         <v>1.48</v>
@@ -26275,7 +26275,7 @@
         <v>0.67</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT127" t="n">
         <v>0.61</v>
@@ -27090,7 +27090,7 @@
         <v>1.61</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AU131" t="n">
         <v>1.47</v>
@@ -27290,7 +27290,7 @@
         <v>0.64</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT132" t="n">
         <v>0.89</v>
@@ -29120,7 +29120,7 @@
         <v>2.06</v>
       </c>
       <c r="AT141" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AU141" t="n">
         <v>1.75</v>
@@ -31150,7 +31150,7 @@
         <v>1.72</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AU151" t="n">
         <v>1.36</v>
@@ -31350,7 +31350,7 @@
         <v>0.15</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT152" t="n">
         <v>0.28</v>
@@ -34395,10 +34395,10 @@
         <v>2.23</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AU167" t="n">
         <v>1.92</v>
@@ -35007,7 +35007,7 @@
         <v>1.17</v>
       </c>
       <c r="AT170" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AU170" t="n">
         <v>1.33</v>
@@ -36222,7 +36222,7 @@
         <v>1.2</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT176" t="n">
         <v>1.39</v>
@@ -37443,7 +37443,7 @@
         <v>2.78</v>
       </c>
       <c r="AT182" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AU182" t="n">
         <v>2.57</v>
@@ -38861,7 +38861,7 @@
         <v>0.88</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT189" t="n">
         <v>0.83</v>
@@ -40894,7 +40894,7 @@
         <v>2.11</v>
       </c>
       <c r="AT199" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AU199" t="n">
         <v>1.5</v>
@@ -41703,7 +41703,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT203" t="n">
         <v>0.78</v>
@@ -43446,13 +43446,13 @@
         </is>
       </c>
       <c r="Q212" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R212" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S212" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T212" t="n">
         <v>2.75</v>
@@ -43569,22 +43569,22 @@
         <v>2.2</v>
       </c>
       <c r="BF212" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BG212" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH212" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="BI212" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ212" t="n">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="BK212" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213">
@@ -44397,6 +44397,209 @@
       </c>
       <c r="BK216" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5976037</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45067.33333333334</v>
+      </c>
+      <c r="F217" t="n">
+        <v>36</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="n">
+        <v>3</v>
+      </c>
+      <c r="N217" t="n">
+        <v>4</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>['32', '55', '86']</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>7</v>
+      </c>
+      <c r="R217" t="n">
+        <v>6</v>
+      </c>
+      <c r="S217" t="n">
+        <v>13</v>
+      </c>
+      <c r="T217" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U217" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V217" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X217" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK217"/>
+  <dimension ref="A1:BK223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT2" t="n">
         <v>2.11</v>
@@ -1715,7 +1715,7 @@
         <v>1.78</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.17</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT13" t="n">
         <v>0.78</v>
@@ -3336,10 +3336,10 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AU14" t="n">
         <v>0.75</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -3742,10 +3742,10 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU16" t="n">
         <v>2.09</v>
@@ -4151,7 +4151,7 @@
         <v>1.61</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="AU18" t="n">
         <v>2.08</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT20" t="n">
         <v>2.11</v>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="AU22" t="n">
         <v>0.8</v>
@@ -5366,10 +5366,10 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU24" t="n">
         <v>1.5</v>
@@ -5572,7 +5572,7 @@
         <v>2.78</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU25" t="n">
         <v>2.68</v>
@@ -5772,7 +5772,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AT26" t="n">
         <v>0.78</v>
@@ -5978,7 +5978,7 @@
         <v>1.61</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AU27" t="n">
         <v>1.62</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT28" t="n">
         <v>0.83</v>
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="AU30" t="n">
         <v>1.54</v>
@@ -6790,7 +6790,7 @@
         <v>2.06</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU31" t="n">
         <v>1.71</v>
@@ -7196,7 +7196,7 @@
         <v>0.89</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU33" t="n">
         <v>0.82</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="AU36" t="n">
         <v>1.06</v>
@@ -8005,10 +8005,10 @@
         <v>0.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU37" t="n">
         <v>1.17</v>
@@ -8208,7 +8208,7 @@
         <v>0.67</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT38" t="n">
         <v>0.61</v>
@@ -8411,7 +8411,7 @@
         <v>1.33</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT39" t="n">
         <v>0.89</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="AU40" t="n">
         <v>1.19</v>
@@ -9023,7 +9023,7 @@
         <v>1.78</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="AU42" t="n">
         <v>1.42</v>
@@ -9226,7 +9226,7 @@
         <v>1.17</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU43" t="n">
         <v>1.2</v>
@@ -9832,10 +9832,10 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU46" t="n">
         <v>1.31</v>
@@ -10038,7 +10038,7 @@
         <v>2.78</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AU47" t="n">
         <v>2.23</v>
@@ -10238,10 +10238,10 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="AU48" t="n">
         <v>1.36</v>
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AU50" t="n">
         <v>1.1</v>
@@ -10850,7 +10850,7 @@
         <v>1.61</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU51" t="n">
         <v>1.74</v>
@@ -11053,7 +11053,7 @@
         <v>0.89</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="AU52" t="n">
         <v>1.05</v>
@@ -11253,10 +11253,10 @@
         <v>1.8</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AU53" t="n">
         <v>1.97</v>
@@ -11456,7 +11456,7 @@
         <v>0.25</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT54" t="n">
         <v>0.83</v>
@@ -11659,10 +11659,10 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU55" t="n">
         <v>2.69</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT56" t="n">
         <v>0.89</v>
@@ -12068,7 +12068,7 @@
         <v>1.61</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU57" t="n">
         <v>1.57</v>
@@ -12268,7 +12268,7 @@
         <v>1.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT58" t="n">
         <v>1</v>
@@ -12674,10 +12674,10 @@
         <v>1.2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU60" t="n">
         <v>1.36</v>
@@ -13083,7 +13083,7 @@
         <v>1.78</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="AU62" t="n">
         <v>1.18</v>
@@ -13486,10 +13486,10 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU64" t="n">
         <v>1.54</v>
@@ -13689,10 +13689,10 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU65" t="n">
         <v>1.93</v>
@@ -13895,7 +13895,7 @@
         <v>2.06</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="AU66" t="n">
         <v>1.76</v>
@@ -14704,7 +14704,7 @@
         <v>0.75</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT70" t="n">
         <v>0.78</v>
@@ -14907,10 +14907,10 @@
         <v>1.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AU71" t="n">
         <v>1.55</v>
@@ -15110,10 +15110,10 @@
         <v>0.75</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU72" t="n">
         <v>1.9</v>
@@ -15313,7 +15313,7 @@
         <v>1.17</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT73" t="n">
         <v>0.89</v>
@@ -15519,7 +15519,7 @@
         <v>0.89</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="AU74" t="n">
         <v>1.04</v>
@@ -15719,10 +15719,10 @@
         <v>2.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="AU75" t="n">
         <v>1.48</v>
@@ -15925,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU76" t="n">
         <v>1.07</v>
@@ -16125,7 +16125,7 @@
         <v>1</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AT77" t="n">
         <v>1</v>
@@ -16534,7 +16534,7 @@
         <v>1</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU79" t="n">
         <v>1.23</v>
@@ -17143,7 +17143,7 @@
         <v>2.06</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AU82" t="n">
         <v>1.82</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT83" t="n">
         <v>0.89</v>
@@ -17546,7 +17546,7 @@
         <v>0.67</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT84" t="n">
         <v>0.83</v>
@@ -17752,7 +17752,7 @@
         <v>1.78</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU85" t="n">
         <v>1.29</v>
@@ -17952,10 +17952,10 @@
         <v>1.14</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU86" t="n">
         <v>2.79</v>
@@ -18158,7 +18158,7 @@
         <v>1.17</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="AU87" t="n">
         <v>1.48</v>
@@ -18358,10 +18358,10 @@
         <v>0.14</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="AU88" t="n">
         <v>1.51</v>
@@ -19173,7 +19173,7 @@
         <v>0.89</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AU92" t="n">
         <v>1.03</v>
@@ -19576,7 +19576,7 @@
         <v>0.43</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AT94" t="n">
         <v>0.61</v>
@@ -19779,7 +19779,7 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT95" t="n">
         <v>1</v>
@@ -19982,10 +19982,10 @@
         <v>2.63</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AT96" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="AU96" t="n">
         <v>1.51</v>
@@ -20188,7 +20188,7 @@
         <v>1</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU97" t="n">
         <v>1.25</v>
@@ -20391,7 +20391,7 @@
         <v>2.06</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="AU98" t="n">
         <v>1.87</v>
@@ -20591,7 +20591,7 @@
         <v>1.57</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AT99" t="n">
         <v>2.11</v>
@@ -21203,7 +21203,7 @@
         <v>1.17</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="AU102" t="n">
         <v>1.41</v>
@@ -21406,7 +21406,7 @@
         <v>2.78</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU103" t="n">
         <v>2.57</v>
@@ -21809,10 +21809,10 @@
         <v>1</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU105" t="n">
         <v>1.48</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT106" t="n">
         <v>0.78</v>
@@ -22215,10 +22215,10 @@
         <v>0.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU107" t="n">
         <v>1.35</v>
@@ -22621,10 +22621,10 @@
         <v>1.44</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AU109" t="n">
         <v>2.69</v>
@@ -22827,7 +22827,7 @@
         <v>0.89</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU110" t="n">
         <v>1.04</v>
@@ -23027,7 +23027,7 @@
         <v>0.88</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT111" t="n">
         <v>0.83</v>
@@ -23230,10 +23230,10 @@
         <v>2.67</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="AU112" t="n">
         <v>2.07</v>
@@ -23433,10 +23433,10 @@
         <v>2.7</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT113" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="AU113" t="n">
         <v>2.64</v>
@@ -23636,7 +23636,7 @@
         <v>0.78</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AT114" t="n">
         <v>0.83</v>
@@ -24045,7 +24045,7 @@
         <v>1.61</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU116" t="n">
         <v>1.44</v>
@@ -24245,10 +24245,10 @@
         <v>1.3</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AU117" t="n">
         <v>1.32</v>
@@ -24654,7 +24654,7 @@
         <v>1.78</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU119" t="n">
         <v>1.38</v>
@@ -24857,7 +24857,7 @@
         <v>2.78</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="AU120" t="n">
         <v>2.62</v>
@@ -25057,10 +25057,10 @@
         <v>1.3</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU121" t="n">
         <v>1.47</v>
@@ -25666,7 +25666,7 @@
         <v>1.89</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT124" t="n">
         <v>2.11</v>
@@ -25872,7 +25872,7 @@
         <v>2.06</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU125" t="n">
         <v>1.8</v>
@@ -26275,7 +26275,7 @@
         <v>0.67</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT127" t="n">
         <v>0.61</v>
@@ -26887,7 +26887,7 @@
         <v>2.78</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU130" t="n">
         <v>2.67</v>
@@ -27290,7 +27290,7 @@
         <v>0.64</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT132" t="n">
         <v>0.89</v>
@@ -27493,10 +27493,10 @@
         <v>1.18</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU133" t="n">
         <v>2.55</v>
@@ -27699,7 +27699,7 @@
         <v>1</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="AU134" t="n">
         <v>1.15</v>
@@ -27902,7 +27902,7 @@
         <v>1.78</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AU135" t="n">
         <v>1.39</v>
@@ -28102,10 +28102,10 @@
         <v>1.18</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU136" t="n">
         <v>1.35</v>
@@ -28305,10 +28305,10 @@
         <v>2.55</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="AU137" t="n">
         <v>1.39</v>
@@ -28714,7 +28714,7 @@
         <v>1.17</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU139" t="n">
         <v>1.42</v>
@@ -29523,10 +29523,10 @@
         <v>0.5</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU143" t="n">
         <v>1.53</v>
@@ -29726,10 +29726,10 @@
         <v>1.17</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AU144" t="n">
         <v>1.49</v>
@@ -30132,10 +30132,10 @@
         <v>0.17</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="AU146" t="n">
         <v>1.32</v>
@@ -30335,7 +30335,7 @@
         <v>0.82</v>
       </c>
       <c r="AS147" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT147" t="n">
         <v>0.83</v>
@@ -30744,7 +30744,7 @@
         <v>0.89</v>
       </c>
       <c r="AT149" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="AU149" t="n">
         <v>1.13</v>
@@ -30947,7 +30947,7 @@
         <v>1.17</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU150" t="n">
         <v>1.37</v>
@@ -31147,7 +31147,7 @@
         <v>2.17</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT151" t="n">
         <v>2.11</v>
@@ -31350,10 +31350,10 @@
         <v>0.15</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="AU152" t="n">
         <v>1.9</v>
@@ -31959,10 +31959,10 @@
         <v>1.23</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU155" t="n">
         <v>1.33</v>
@@ -32165,7 +32165,7 @@
         <v>1.17</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU156" t="n">
         <v>1.35</v>
@@ -32571,7 +32571,7 @@
         <v>1.61</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AU158" t="n">
         <v>1.52</v>
@@ -32774,7 +32774,7 @@
         <v>0.89</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU159" t="n">
         <v>1.12</v>
@@ -32974,7 +32974,7 @@
         <v>1.17</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AT160" t="n">
         <v>0.78</v>
@@ -33180,7 +33180,7 @@
         <v>2.06</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU161" t="n">
         <v>1.72</v>
@@ -33380,7 +33380,7 @@
         <v>1</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT162" t="n">
         <v>1</v>
@@ -33583,10 +33583,10 @@
         <v>0.14</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="AU163" t="n">
         <v>2.56</v>
@@ -33789,7 +33789,7 @@
         <v>1</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AU164" t="n">
         <v>1.29</v>
@@ -33989,7 +33989,7 @@
         <v>0.54</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT165" t="n">
         <v>0.89</v>
@@ -34195,7 +34195,7 @@
         <v>1.78</v>
       </c>
       <c r="AT166" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="AU166" t="n">
         <v>1.37</v>
@@ -34395,7 +34395,7 @@
         <v>2.23</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT167" t="n">
         <v>2.11</v>
@@ -34598,7 +34598,7 @@
         <v>0.54</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT168" t="n">
         <v>0.61</v>
@@ -34804,7 +34804,7 @@
         <v>2.78</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU169" t="n">
         <v>2.58</v>
@@ -35207,7 +35207,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT171" t="n">
         <v>0.83</v>
@@ -35413,7 +35413,7 @@
         <v>1.61</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU172" t="n">
         <v>1.48</v>
@@ -35613,10 +35613,10 @@
         <v>1</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU173" t="n">
         <v>1.51</v>
@@ -36019,10 +36019,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU175" t="n">
         <v>1.4</v>
@@ -36222,10 +36222,10 @@
         <v>1.2</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AU176" t="n">
         <v>1.84</v>
@@ -36428,7 +36428,7 @@
         <v>1.61</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU177" t="n">
         <v>1.48</v>
@@ -36628,7 +36628,7 @@
         <v>0.57</v>
       </c>
       <c r="AS178" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT178" t="n">
         <v>0.61</v>
@@ -37240,7 +37240,7 @@
         <v>1</v>
       </c>
       <c r="AT181" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="AU181" t="n">
         <v>1.32</v>
@@ -37849,7 +37849,7 @@
         <v>2.06</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU184" t="n">
         <v>1.72</v>
@@ -38252,10 +38252,10 @@
         <v>0.13</v>
       </c>
       <c r="AS186" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="AU186" t="n">
         <v>1.51</v>
@@ -38455,7 +38455,7 @@
         <v>1.07</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT187" t="n">
         <v>1</v>
@@ -38861,10 +38861,10 @@
         <v>0.88</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU189" t="n">
         <v>1.79</v>
@@ -39064,10 +39064,10 @@
         <v>1.25</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU190" t="n">
         <v>1.37</v>
@@ -39470,10 +39470,10 @@
         <v>0.87</v>
       </c>
       <c r="AS192" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU192" t="n">
         <v>2.53</v>
@@ -39676,7 +39676,7 @@
         <v>1.61</v>
       </c>
       <c r="AT193" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="AU193" t="n">
         <v>1.48</v>
@@ -40082,7 +40082,7 @@
         <v>2.78</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AU195" t="n">
         <v>2.5</v>
@@ -40282,7 +40282,7 @@
         <v>0.93</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT196" t="n">
         <v>0.78</v>
@@ -40691,7 +40691,7 @@
         <v>1.78</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="AU198" t="n">
         <v>1.32</v>
@@ -40891,7 +40891,7 @@
         <v>2.19</v>
       </c>
       <c r="AS199" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AT199" t="n">
         <v>2.11</v>
@@ -41503,7 +41503,7 @@
         <v>1.17</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="AU202" t="n">
         <v>1.33</v>
@@ -41703,10 +41703,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU203" t="n">
         <v>1.76</v>
@@ -41909,7 +41909,7 @@
         <v>2.06</v>
       </c>
       <c r="AT204" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="AU204" t="n">
         <v>1.74</v>
@@ -42109,7 +42109,7 @@
         <v>1</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT205" t="n">
         <v>0.89</v>
@@ -42312,10 +42312,10 @@
         <v>2.71</v>
       </c>
       <c r="AS206" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT206" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="AU206" t="n">
         <v>2.54</v>
@@ -42515,7 +42515,7 @@
         <v>1</v>
       </c>
       <c r="AS207" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AT207" t="n">
         <v>1</v>
@@ -42721,7 +42721,7 @@
         <v>1.78</v>
       </c>
       <c r="AT208" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AU208" t="n">
         <v>1.32</v>
@@ -42921,7 +42921,7 @@
         <v>0.75</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT209" t="n">
         <v>0.83</v>
@@ -43330,7 +43330,7 @@
         <v>0.89</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AU211" t="n">
         <v>1.23</v>
@@ -43936,7 +43936,7 @@
         <v>0.65</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="AT214" t="n">
         <v>0.61</v>
@@ -44142,7 +44142,7 @@
         <v>1.61</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU215" t="n">
         <v>1.5</v>
@@ -44345,7 +44345,7 @@
         <v>2.78</v>
       </c>
       <c r="AT216" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU216" t="n">
         <v>2.47</v>
@@ -44464,10 +44464,10 @@
         <v>7</v>
       </c>
       <c r="R217" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S217" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T217" t="n">
         <v>5.5</v>
@@ -44545,7 +44545,7 @@
         <v>2.06</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT217" t="n">
         <v>2.11</v>
@@ -44600,6 +44600,1224 @@
       </c>
       <c r="BK217" t="n">
         <v>24</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5976038</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45070.65625</v>
+      </c>
+      <c r="F218" t="n">
+        <v>37</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>2</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>2</v>
+      </c>
+      <c r="L218" t="n">
+        <v>3</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>3</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['14', '43', '49']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>2</v>
+      </c>
+      <c r="R218" t="n">
+        <v>2</v>
+      </c>
+      <c r="S218" t="n">
+        <v>4</v>
+      </c>
+      <c r="T218" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U218" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V218" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X218" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5976039</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45070.65625</v>
+      </c>
+      <c r="F219" t="n">
+        <v>37</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1</v>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="n">
+        <v>4</v>
+      </c>
+      <c r="M219" t="n">
+        <v>2</v>
+      </c>
+      <c r="N219" t="n">
+        <v>6</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['52', '75', '80', '86']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>['41', '58']</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>8</v>
+      </c>
+      <c r="R219" t="n">
+        <v>10</v>
+      </c>
+      <c r="S219" t="n">
+        <v>18</v>
+      </c>
+      <c r="T219" t="n">
+        <v>6</v>
+      </c>
+      <c r="U219" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V219" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X219" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5976040</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45070.65625</v>
+      </c>
+      <c r="F220" t="n">
+        <v>37</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" t="n">
+        <v>2</v>
+      </c>
+      <c r="L220" t="n">
+        <v>2</v>
+      </c>
+      <c r="M220" t="n">
+        <v>2</v>
+      </c>
+      <c r="N220" t="n">
+        <v>4</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['45+3', '47']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['1', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>9</v>
+      </c>
+      <c r="R220" t="n">
+        <v>2</v>
+      </c>
+      <c r="S220" t="n">
+        <v>11</v>
+      </c>
+      <c r="T220" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V220" t="n">
+        <v>6</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X220" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5976041</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45070.65625</v>
+      </c>
+      <c r="F221" t="n">
+        <v>37</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Dundee United</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>2</v>
+      </c>
+      <c r="K221" t="n">
+        <v>2</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M221" t="n">
+        <v>3</v>
+      </c>
+      <c r="N221" t="n">
+        <v>3</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>['14', '44', '83']</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>3</v>
+      </c>
+      <c r="R221" t="n">
+        <v>5</v>
+      </c>
+      <c r="S221" t="n">
+        <v>8</v>
+      </c>
+      <c r="T221" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V221" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X221" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5976042</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45070.65625</v>
+      </c>
+      <c r="F222" t="n">
+        <v>37</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="n">
+        <v>2</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>1</v>
+      </c>
+      <c r="R222" t="n">
+        <v>11</v>
+      </c>
+      <c r="S222" t="n">
+        <v>12</v>
+      </c>
+      <c r="T222" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U222" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V222" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X222" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5976043</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45070.65625</v>
+      </c>
+      <c r="F223" t="n">
+        <v>37</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="n">
+        <v>3</v>
+      </c>
+      <c r="M223" t="n">
+        <v>3</v>
+      </c>
+      <c r="N223" t="n">
+        <v>6</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>['54', '69', '90']</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>['24', '51', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>6</v>
+      </c>
+      <c r="R223" t="n">
+        <v>4</v>
+      </c>
+      <c r="S223" t="n">
+        <v>10</v>
+      </c>
+      <c r="T223" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U223" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V223" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X223" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Scotland Premiership_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK223"/>
+  <dimension ref="A1:BK229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.68</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT6" t="n">
         <v>1.37</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT9" t="n">
         <v>1.26</v>
@@ -3136,7 +3136,7 @@
         <v>1.05</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU17" t="n">
         <v>1.61</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT18" t="n">
         <v>2.42</v>
@@ -4351,10 +4351,10 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU19" t="n">
         <v>1.58</v>
@@ -4557,7 +4557,7 @@
         <v>1.74</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AU20" t="n">
         <v>1.23</v>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU21" t="n">
         <v>0.34</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU23" t="n">
         <v>0.58</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="AT25" t="n">
         <v>0.84</v>
@@ -5775,7 +5775,7 @@
         <v>2.16</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU26" t="n">
         <v>1.02</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT27" t="n">
         <v>1.37</v>
@@ -6181,7 +6181,7 @@
         <v>2.68</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU28" t="n">
         <v>2.53</v>
@@ -6381,7 +6381,7 @@
         <v>1.5</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT29" t="n">
         <v>1</v>
@@ -6787,7 +6787,7 @@
         <v>1.5</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT31" t="n">
         <v>1.26</v>
@@ -6990,10 +6990,10 @@
         <v>2</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AU32" t="n">
         <v>2.39</v>
@@ -7193,7 +7193,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT33" t="n">
         <v>0.74</v>
@@ -7396,10 +7396,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU34" t="n">
         <v>0.85</v>
@@ -7602,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU35" t="n">
         <v>1.09</v>
@@ -8211,7 +8211,7 @@
         <v>2.68</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU38" t="n">
         <v>2.8</v>
@@ -8414,7 +8414,7 @@
         <v>1.74</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU39" t="n">
         <v>1.67</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU41" t="n">
         <v>0.93</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT42" t="n">
         <v>2.42</v>
@@ -9223,7 +9223,7 @@
         <v>0.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT43" t="n">
         <v>0.84</v>
@@ -9426,10 +9426,10 @@
         <v>1.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AU44" t="n">
         <v>2.05</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="AT47" t="n">
         <v>1.37</v>
@@ -10441,10 +10441,10 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU49" t="n">
         <v>1.27</v>
@@ -10847,7 +10847,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT51" t="n">
         <v>1.26</v>
@@ -11050,7 +11050,7 @@
         <v>2.25</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT52" t="n">
         <v>2.42</v>
@@ -11459,7 +11459,7 @@
         <v>1.68</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU54" t="n">
         <v>1.22</v>
@@ -11865,7 +11865,7 @@
         <v>1.05</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU56" t="n">
         <v>1.49</v>
@@ -12065,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT57" t="n">
         <v>0.84</v>
@@ -12471,7 +12471,7 @@
         <v>1.2</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="AT59" t="n">
         <v>1</v>
@@ -12880,7 +12880,7 @@
         <v>1</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU61" t="n">
         <v>1.1</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT62" t="n">
         <v>0.42</v>
@@ -13283,10 +13283,10 @@
         <v>1.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AU63" t="n">
         <v>1.58</v>
@@ -13892,7 +13892,7 @@
         <v>2.4</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT66" t="n">
         <v>2.42</v>
@@ -14095,10 +14095,10 @@
         <v>0.8</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU67" t="n">
         <v>1.43</v>
@@ -14298,10 +14298,10 @@
         <v>0.8</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU68" t="n">
         <v>1.55</v>
@@ -14501,10 +14501,10 @@
         <v>0.6</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU69" t="n">
         <v>1.23</v>
@@ -14707,7 +14707,7 @@
         <v>2.68</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU70" t="n">
         <v>2.62</v>
@@ -15316,7 +15316,7 @@
         <v>2.68</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU73" t="n">
         <v>2.63</v>
@@ -15516,7 +15516,7 @@
         <v>0.17</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT74" t="n">
         <v>0.42</v>
@@ -16328,10 +16328,10 @@
         <v>0.8</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU78" t="n">
         <v>1.49</v>
@@ -16734,10 +16734,10 @@
         <v>0.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU80" t="n">
         <v>2.25</v>
@@ -16937,10 +16937,10 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AU81" t="n">
         <v>1.05</v>
@@ -17140,7 +17140,7 @@
         <v>1.71</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT82" t="n">
         <v>1.37</v>
@@ -17346,7 +17346,7 @@
         <v>1.68</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU83" t="n">
         <v>1.37</v>
@@ -17549,7 +17549,7 @@
         <v>1.74</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU84" t="n">
         <v>1.89</v>
@@ -17749,7 +17749,7 @@
         <v>1.29</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT85" t="n">
         <v>1.26</v>
@@ -18155,7 +18155,7 @@
         <v>2.57</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT87" t="n">
         <v>2.42</v>
@@ -18561,10 +18561,10 @@
         <v>1.67</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT89" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AU89" t="n">
         <v>1.33</v>
@@ -18764,10 +18764,10 @@
         <v>1.17</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU90" t="n">
         <v>1.81</v>
@@ -18967,7 +18967,7 @@
         <v>0.86</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT91" t="n">
         <v>1</v>
@@ -19170,7 +19170,7 @@
         <v>1.5</v>
       </c>
       <c r="AS92" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT92" t="n">
         <v>1.37</v>
@@ -19373,10 +19373,10 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU93" t="n">
         <v>2.4</v>
@@ -19579,7 +19579,7 @@
         <v>2.16</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU94" t="n">
         <v>1.58</v>
@@ -20388,7 +20388,7 @@
         <v>0.13</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT98" t="n">
         <v>0.42</v>
@@ -20594,7 +20594,7 @@
         <v>2.16</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AU99" t="n">
         <v>1.37</v>
@@ -20794,10 +20794,10 @@
         <v>1.14</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU100" t="n">
         <v>2.43</v>
@@ -21000,7 +21000,7 @@
         <v>1</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AU101" t="n">
         <v>1.17</v>
@@ -21200,7 +21200,7 @@
         <v>0.11</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT102" t="n">
         <v>0.42</v>
@@ -21403,7 +21403,7 @@
         <v>1.44</v>
       </c>
       <c r="AS103" t="n">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="AT103" t="n">
         <v>1.26</v>
@@ -21606,10 +21606,10 @@
         <v>0.88</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU104" t="n">
         <v>1.31</v>
@@ -22015,7 +22015,7 @@
         <v>1.74</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU106" t="n">
         <v>1.92</v>
@@ -22418,10 +22418,10 @@
         <v>0.78</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU108" t="n">
         <v>1.42</v>
@@ -22824,7 +22824,7 @@
         <v>1</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT110" t="n">
         <v>0.84</v>
@@ -23030,7 +23030,7 @@
         <v>1.05</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU111" t="n">
         <v>1.45</v>
@@ -23639,7 +23639,7 @@
         <v>2.16</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU114" t="n">
         <v>1.35</v>
@@ -23839,7 +23839,7 @@
         <v>0.67</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT115" t="n">
         <v>1</v>
@@ -24042,7 +24042,7 @@
         <v>0.57</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT116" t="n">
         <v>0.74</v>
@@ -24448,10 +24448,10 @@
         <v>0.38</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU118" t="n">
         <v>1.12</v>
@@ -24651,7 +24651,7 @@
         <v>1.2</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT119" t="n">
         <v>0.84</v>
@@ -24854,7 +24854,7 @@
         <v>0.2</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="AT120" t="n">
         <v>0.42</v>
@@ -25263,7 +25263,7 @@
         <v>1</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU122" t="n">
         <v>1.13</v>
@@ -25463,7 +25463,7 @@
         <v>0.6</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT123" t="n">
         <v>1</v>
@@ -25669,7 +25669,7 @@
         <v>1.05</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AU124" t="n">
         <v>1.48</v>
@@ -25869,7 +25869,7 @@
         <v>0.63</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT125" t="n">
         <v>0.74</v>
@@ -26072,10 +26072,10 @@
         <v>1.1</v>
       </c>
       <c r="AS126" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU126" t="n">
         <v>1.11</v>
@@ -26278,7 +26278,7 @@
         <v>1.74</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU127" t="n">
         <v>1.95</v>
@@ -26478,10 +26478,10 @@
         <v>0.8</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU128" t="n">
         <v>1.45</v>
@@ -26681,10 +26681,10 @@
         <v>0.7</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU129" t="n">
         <v>1.75</v>
@@ -26884,7 +26884,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="AT130" t="n">
         <v>0.74</v>
@@ -27087,10 +27087,10 @@
         <v>2</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT131" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AU131" t="n">
         <v>1.47</v>
@@ -27293,7 +27293,7 @@
         <v>1.74</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU132" t="n">
         <v>1.91</v>
@@ -27899,7 +27899,7 @@
         <v>1.27</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT135" t="n">
         <v>1.37</v>
@@ -28711,7 +28711,7 @@
         <v>1.08</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT139" t="n">
         <v>1.26</v>
@@ -28914,10 +28914,10 @@
         <v>0.7</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU140" t="n">
         <v>1.43</v>
@@ -29117,10 +29117,10 @@
         <v>2.09</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT141" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AU141" t="n">
         <v>1.75</v>
@@ -29320,10 +29320,10 @@
         <v>1.27</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU142" t="n">
         <v>2.64</v>
@@ -29929,10 +29929,10 @@
         <v>0.64</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU145" t="n">
         <v>1.68</v>
@@ -30338,7 +30338,7 @@
         <v>2.68</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU147" t="n">
         <v>2.56</v>
@@ -30538,7 +30538,7 @@
         <v>0.83</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT148" t="n">
         <v>1</v>
@@ -30741,7 +30741,7 @@
         <v>2.58</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT149" t="n">
         <v>2.42</v>
@@ -30944,7 +30944,7 @@
         <v>0.73</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT150" t="n">
         <v>0.74</v>
@@ -31150,7 +31150,7 @@
         <v>1.68</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AU151" t="n">
         <v>1.36</v>
@@ -31553,10 +31553,10 @@
         <v>0.75</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU153" t="n">
         <v>1.36</v>
@@ -31756,10 +31756,10 @@
         <v>0.58</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU154" t="n">
         <v>2.58</v>
@@ -32162,7 +32162,7 @@
         <v>1.17</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT156" t="n">
         <v>0.84</v>
@@ -32368,7 +32368,7 @@
         <v>1</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU157" t="n">
         <v>1.18</v>
@@ -32568,7 +32568,7 @@
         <v>1.08</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT158" t="n">
         <v>1.37</v>
@@ -32771,7 +32771,7 @@
         <v>0.67</v>
       </c>
       <c r="AS159" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT159" t="n">
         <v>0.74</v>
@@ -32977,7 +32977,7 @@
         <v>2.16</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU160" t="n">
         <v>1.51</v>
@@ -33177,7 +33177,7 @@
         <v>1.36</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT161" t="n">
         <v>1.26</v>
@@ -33992,7 +33992,7 @@
         <v>1.05</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU165" t="n">
         <v>1.36</v>
@@ -34192,7 +34192,7 @@
         <v>2.62</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT166" t="n">
         <v>2.42</v>
@@ -34398,7 +34398,7 @@
         <v>1.74</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AU167" t="n">
         <v>1.92</v>
@@ -34601,7 +34601,7 @@
         <v>1.68</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU168" t="n">
         <v>1.28</v>
@@ -34801,7 +34801,7 @@
         <v>1.08</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="AT169" t="n">
         <v>0.84</v>
@@ -35004,10 +35004,10 @@
         <v>2.29</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT170" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AU170" t="n">
         <v>1.33</v>
@@ -35210,7 +35210,7 @@
         <v>1.68</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU171" t="n">
         <v>1.34</v>
@@ -35410,7 +35410,7 @@
         <v>1.27</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT172" t="n">
         <v>1.26</v>
@@ -35816,7 +35816,7 @@
         <v>1.14</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="AT174" t="n">
         <v>1</v>
@@ -36425,7 +36425,7 @@
         <v>0.93</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT177" t="n">
         <v>0.84</v>
@@ -36631,7 +36631,7 @@
         <v>2.68</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU178" t="n">
         <v>2.53</v>
@@ -36831,10 +36831,10 @@
         <v>0.71</v>
       </c>
       <c r="AS179" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU179" t="n">
         <v>1.11</v>
@@ -37034,10 +37034,10 @@
         <v>1.08</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU180" t="n">
         <v>1.3</v>
@@ -37440,10 +37440,10 @@
         <v>2.33</v>
       </c>
       <c r="AS182" t="n">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="AT182" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AU182" t="n">
         <v>2.57</v>
@@ -37643,10 +37643,10 @@
         <v>1</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU183" t="n">
         <v>1.28</v>
@@ -37846,7 +37846,7 @@
         <v>0.71</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT184" t="n">
         <v>0.74</v>
@@ -38049,10 +38049,10 @@
         <v>0.64</v>
       </c>
       <c r="AS185" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU185" t="n">
         <v>1.14</v>
@@ -38661,7 +38661,7 @@
         <v>1</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU188" t="n">
         <v>1.31</v>
@@ -39267,10 +39267,10 @@
         <v>0.53</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU191" t="n">
         <v>1.28</v>
@@ -39673,7 +39673,7 @@
         <v>2.67</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT193" t="n">
         <v>2.42</v>
@@ -39876,10 +39876,10 @@
         <v>0.8</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU194" t="n">
         <v>1.68</v>
@@ -40079,7 +40079,7 @@
         <v>1.31</v>
       </c>
       <c r="AS195" t="n">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="AT195" t="n">
         <v>1.37</v>
@@ -40285,7 +40285,7 @@
         <v>1.05</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU196" t="n">
         <v>1.38</v>
@@ -40485,7 +40485,7 @@
         <v>1</v>
       </c>
       <c r="AS197" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT197" t="n">
         <v>1</v>
@@ -40688,7 +40688,7 @@
         <v>0.13</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT198" t="n">
         <v>0.42</v>
@@ -40894,7 +40894,7 @@
         <v>2.16</v>
       </c>
       <c r="AT199" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AU199" t="n">
         <v>1.5</v>
@@ -41097,7 +41097,7 @@
         <v>1</v>
       </c>
       <c r="AT200" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU200" t="n">
         <v>1.34</v>
@@ -41297,10 +41297,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS201" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU201" t="n">
         <v>1.18</v>
@@ -41500,7 +41500,7 @@
         <v>0.29</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT202" t="n">
         <v>0.42</v>
@@ -41906,7 +41906,7 @@
         <v>2.69</v>
       </c>
       <c r="AS204" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT204" t="n">
         <v>2.42</v>
@@ -42112,7 +42112,7 @@
         <v>2.68</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU205" t="n">
         <v>2.53</v>
@@ -42718,7 +42718,7 @@
         <v>0.82</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AT208" t="n">
         <v>0.84</v>
@@ -42924,7 +42924,7 @@
         <v>1.05</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU209" t="n">
         <v>1.35</v>
@@ -43124,10 +43124,10 @@
         <v>0.82</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AU210" t="n">
         <v>1.48</v>
@@ -43327,7 +43327,7 @@
         <v>1.29</v>
       </c>
       <c r="AS211" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AT211" t="n">
         <v>1.37</v>
@@ -43530,10 +43530,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS212" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU212" t="n">
         <v>1.68</v>
@@ -43733,10 +43733,10 @@
         <v>0.88</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU213" t="n">
         <v>1.38</v>
@@ -43939,7 +43939,7 @@
         <v>1.68</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="AU214" t="n">
         <v>1.38</v>
@@ -44139,7 +44139,7 @@
         <v>1.18</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT215" t="n">
         <v>1.26</v>
@@ -44342,7 +44342,7 @@
         <v>0.76</v>
       </c>
       <c r="AS216" t="n">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="AT216" t="n">
         <v>0.74</v>
@@ -44548,7 +44548,7 @@
         <v>1.74</v>
       </c>
       <c r="AT217" t="n">
-        <v>2.11</v>
+        <v>2.16</v>
       </c>
       <c r="AU217" t="n">
         <v>1.76</v>
@@ -45061,7 +45061,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>['45+3', '47']</t>
+          <t>['45+4', '47']</t>
         </is>
       </c>
       <c r="P220" t="inlineStr">
@@ -45818,6 +45818,1224 @@
       </c>
       <c r="BK223" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>5976044</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45073.35416666666</v>
+      </c>
+      <c r="F224" t="n">
+        <v>38</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Aberdeen</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>2</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>2</v>
+      </c>
+      <c r="L224" t="n">
+        <v>5</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" t="n">
+        <v>5</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>['27', '32', '78', '82', '90']</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>10</v>
+      </c>
+      <c r="R224" t="n">
+        <v>2</v>
+      </c>
+      <c r="S224" t="n">
+        <v>12</v>
+      </c>
+      <c r="T224" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U224" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="V224" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X224" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>5976045</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45073.35416666666</v>
+      </c>
+      <c r="F225" t="n">
+        <v>38</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Hibernian</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
+      <c r="K225" t="n">
+        <v>2</v>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="n">
+        <v>2</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>4</v>
+      </c>
+      <c r="R225" t="n">
+        <v>9</v>
+      </c>
+      <c r="S225" t="n">
+        <v>13</v>
+      </c>
+      <c r="T225" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U225" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V225" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X225" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>5976046</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45073.35416666666</v>
+      </c>
+      <c r="F226" t="n">
+        <v>38</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>St. Mirren</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Rangers</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>3</v>
+      </c>
+      <c r="N226" t="n">
+        <v>3</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>['26', '48', '77']</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>5</v>
+      </c>
+      <c r="R226" t="n">
+        <v>3</v>
+      </c>
+      <c r="S226" t="n">
+        <v>8</v>
+      </c>
+      <c r="T226" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="U226" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V226" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X226" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>5976048</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45074.45833333334</v>
+      </c>
+      <c r="F227" t="n">
+        <v>38</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Motherwell</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Dundee United</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
+      <c r="K227" t="n">
+        <v>2</v>
+      </c>
+      <c r="L227" t="n">
+        <v>3</v>
+      </c>
+      <c r="M227" t="n">
+        <v>2</v>
+      </c>
+      <c r="N227" t="n">
+        <v>5</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>['5', '69', '82']</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>['31', '49']</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>9</v>
+      </c>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
+      <c r="S227" t="n">
+        <v>9</v>
+      </c>
+      <c r="T227" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U227" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="V227" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X227" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>5976047</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45074.45833333334</v>
+      </c>
+      <c r="F228" t="n">
+        <v>38</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Kilmarnock</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Ross County</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>3</v>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="n">
+        <v>4</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>['36', '49', '78']</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>5</v>
+      </c>
+      <c r="R228" t="n">
+        <v>3</v>
+      </c>
+      <c r="S228" t="n">
+        <v>8</v>
+      </c>
+      <c r="T228" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U228" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V228" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X228" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>5976049</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Scotland Premiership</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45074.45833333334</v>
+      </c>
+      <c r="F229" t="n">
+        <v>38</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>St. Johnstone</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Livingston</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="n">
+        <v>2</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>2</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['17', '68']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>4</v>
+      </c>
+      <c r="R229" t="n">
+        <v>2</v>
+      </c>
+      <c r="S229" t="n">
+        <v>6</v>
+      </c>
+      <c r="T229" t="n">
+        <v>3</v>
+      </c>
+      <c r="U229" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V229" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X229" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
